--- a/raw_data/20200818_saline/20200818_Sensor1_Test_82.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_82.xlsx
@@ -1,1444 +1,1860 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B542D24A-1F79-4670-A479-1982383D4A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>73088.790539</v>
+        <v>73088.790538999994</v>
       </c>
       <c r="B2" s="1">
-        <v>20.302442</v>
+        <v>20.302441999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>902.225000</v>
+        <v>902.22500000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>-194.476000</v>
+        <v>-194.476</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>73099.173757</v>
+        <v>73099.173756999997</v>
       </c>
       <c r="G2" s="1">
-        <v>20.305326</v>
+        <v>20.305326000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>919.383000</v>
+        <v>919.38300000000004</v>
       </c>
       <c r="I2" s="1">
-        <v>-165.305000</v>
+        <v>-165.30500000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>73109.961782</v>
+        <v>73109.961781999998</v>
       </c>
       <c r="L2" s="1">
-        <v>20.308323</v>
+        <v>20.308323000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>942.380000</v>
+        <v>942.38</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.830000</v>
+        <v>-118.83</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>73119.913978</v>
+        <v>73119.913977999997</v>
       </c>
       <c r="Q2" s="1">
-        <v>20.311087</v>
+        <v>20.311087000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>949.414000</v>
+        <v>949.41399999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.129000</v>
+        <v>-103.129</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>73130.194092</v>
+        <v>73130.194092000005</v>
       </c>
       <c r="V2" s="1">
-        <v>20.313943</v>
+        <v>20.313942999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>956.447000</v>
+        <v>956.447</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.544300</v>
+        <v>-88.544300000000007</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>73140.293095</v>
+        <v>73140.293095000001</v>
       </c>
       <c r="AA2" s="1">
         <v>20.316748</v>
       </c>
       <c r="AB2" s="1">
-        <v>964.229000</v>
+        <v>964.22900000000004</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.360500</v>
+        <v>-77.360500000000002</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>73150.560281</v>
+        <v>73150.560280999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>20.319600</v>
+        <v>20.319600000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>969.208000</v>
+        <v>969.20799999999997</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.142000</v>
+        <v>-75.141999999999996</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>73160.705948</v>
+        <v>73160.705948000003</v>
       </c>
       <c r="AK2" s="1">
-        <v>20.322418</v>
+        <v>20.322417999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>976.766000</v>
+        <v>976.76599999999996</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.732500</v>
+        <v>-79.732500000000002</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>73171.297021</v>
+        <v>73171.297021000006</v>
       </c>
       <c r="AP2" s="1">
-        <v>20.325360</v>
+        <v>20.32536</v>
       </c>
       <c r="AQ2" s="1">
-        <v>985.096000</v>
+        <v>985.096</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.104100</v>
+        <v>-91.104100000000003</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>73182.272495</v>
+        <v>73182.272494999997</v>
       </c>
       <c r="AU2" s="1">
-        <v>20.328409</v>
+        <v>20.328409000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>995.090000</v>
+        <v>995.09</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.495000</v>
+        <v>-108.495</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>73193.499440</v>
+        <v>73193.49944</v>
       </c>
       <c r="AZ2" s="1">
-        <v>20.331528</v>
+        <v>20.331527999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1003.530000</v>
+        <v>1003.53</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.916000</v>
+        <v>-123.916</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>73204.011652</v>
+        <v>73204.011652000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>20.334448</v>
+        <v>20.334447999999998</v>
       </c>
       <c r="BF2" s="1">
-        <v>1042.510000</v>
+        <v>1042.51</v>
       </c>
       <c r="BG2" s="1">
-        <v>-194.657000</v>
+        <v>-194.65700000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>73215.022440</v>
+        <v>73215.022440000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>20.337506</v>
+        <v>20.337506000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1109.430000</v>
+        <v>1109.43</v>
       </c>
       <c r="BL2" s="1">
-        <v>-308.829000</v>
+        <v>-308.82900000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>73226.115403</v>
+        <v>73226.115403000003</v>
       </c>
       <c r="BO2" s="1">
         <v>20.340588</v>
       </c>
       <c r="BP2" s="1">
-        <v>1217.530000</v>
+        <v>1217.53</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-487.724000</v>
+        <v>-487.72399999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>73237.945942</v>
+        <v>73237.945942000006</v>
       </c>
       <c r="BT2" s="1">
         <v>20.343874</v>
       </c>
       <c r="BU2" s="1">
-        <v>1338.180000</v>
+        <v>1338.18</v>
       </c>
       <c r="BV2" s="1">
-        <v>-683.054000</v>
+        <v>-683.05399999999997</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>73248.969529</v>
+        <v>73248.969528999995</v>
       </c>
       <c r="BY2" s="1">
-        <v>20.346936</v>
+        <v>20.346935999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1472.990000</v>
+        <v>1472.99</v>
       </c>
       <c r="CA2" s="1">
-        <v>-890.219000</v>
+        <v>-890.21900000000005</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>73260.004558</v>
+        <v>73260.004558000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>20.350001</v>
+        <v>20.350000999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1821.790000</v>
+        <v>1821.79</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1380.580000</v>
+        <v>-1380.58</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>73089.458154</v>
+        <v>73089.458154000007</v>
       </c>
       <c r="B3" s="1">
-        <v>20.302627</v>
+        <v>20.302627000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>902.385000</v>
+        <v>902.38499999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-194.284000</v>
+        <v>-194.28399999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>73099.833932</v>
+        <v>73099.833931999994</v>
       </c>
       <c r="G3" s="1">
-        <v>20.305509</v>
+        <v>20.305509000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>919.138000</v>
+        <v>919.13800000000003</v>
       </c>
       <c r="I3" s="1">
-        <v>-165.408000</v>
+        <v>-165.40799999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>73110.375916</v>
+        <v>73110.375916000005</v>
       </c>
       <c r="L3" s="1">
-        <v>20.308438</v>
+        <v>20.308437999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>942.466000</v>
+        <v>942.46600000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.753000</v>
+        <v>-118.753</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>73120.265137</v>
+        <v>73120.265136999995</v>
       </c>
       <c r="Q3" s="1">
-        <v>20.311185</v>
+        <v>20.311184999999998</v>
       </c>
       <c r="R3" s="1">
-        <v>949.429000</v>
+        <v>949.42899999999997</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.126000</v>
+        <v>-103.126</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>73130.543733</v>
+        <v>73130.543732999999</v>
       </c>
       <c r="V3" s="1">
-        <v>20.314040</v>
+        <v>20.314039999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>956.548000</v>
+        <v>956.548</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.588500</v>
+        <v>-88.588499999999996</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>73140.677495</v>
+        <v>73140.677494999996</v>
       </c>
       <c r="AA3" s="1">
         <v>20.316855</v>
       </c>
       <c r="AB3" s="1">
-        <v>964.234000</v>
+        <v>964.23400000000004</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.253200</v>
+        <v>-77.253200000000007</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>73150.933274</v>
+        <v>73150.933273999995</v>
       </c>
       <c r="AF3" s="1">
-        <v>20.319704</v>
+        <v>20.319704000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>969.182000</v>
+        <v>969.18200000000002</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.165000</v>
+        <v>-75.165000000000006</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>73161.127393</v>
+        <v>73161.127393000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>20.322535</v>
+        <v>20.322534999999998</v>
       </c>
       <c r="AL3" s="1">
-        <v>976.779000</v>
+        <v>976.779</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.714700</v>
+        <v>-79.714699999999993</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>73171.724078</v>
+        <v>73171.724077999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>20.325479</v>
+        <v>20.325479000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>985.098000</v>
+        <v>985.09799999999996</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.086500</v>
+        <v>-91.086500000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>73182.717407</v>
+        <v>73182.717407000004</v>
       </c>
       <c r="AU3" s="1">
         <v>20.328533</v>
       </c>
       <c r="AV3" s="1">
-        <v>995.100000</v>
+        <v>995.1</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.480000</v>
+        <v>-108.48</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>73193.861520</v>
+        <v>73193.861520000006</v>
       </c>
       <c r="AZ3" s="1">
-        <v>20.331628</v>
+        <v>20.331627999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1003.500000</v>
+        <v>1003.5</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.905000</v>
+        <v>-123.905</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>73204.384146</v>
+        <v>73204.384145999997</v>
       </c>
       <c r="BE3" s="1">
-        <v>20.334551</v>
+        <v>20.334551000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1042.530000</v>
+        <v>1042.53</v>
       </c>
       <c r="BG3" s="1">
-        <v>-194.648000</v>
+        <v>-194.648</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>73215.404756</v>
+        <v>73215.404756000004</v>
       </c>
       <c r="BJ3" s="1">
         <v>20.337612</v>
       </c>
       <c r="BK3" s="1">
-        <v>1109.420000</v>
+        <v>1109.42</v>
       </c>
       <c r="BL3" s="1">
-        <v>-308.774000</v>
+        <v>-308.774</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>73226.941700</v>
+        <v>73226.941699999996</v>
       </c>
       <c r="BO3" s="1">
-        <v>20.340817</v>
+        <v>20.340817000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1217.500000</v>
+        <v>1217.5</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-487.713000</v>
+        <v>-487.71300000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>73238.402262</v>
+        <v>73238.402262000003</v>
       </c>
       <c r="BT3" s="1">
-        <v>20.344001</v>
+        <v>20.344000999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1338.220000</v>
+        <v>1338.22</v>
       </c>
       <c r="BV3" s="1">
-        <v>-683.116000</v>
+        <v>-683.11599999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>73249.440266</v>
+        <v>73249.440266000005</v>
       </c>
       <c r="BY3" s="1">
-        <v>20.347067</v>
+        <v>20.347066999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1473.090000</v>
+        <v>1473.09</v>
       </c>
       <c r="CA3" s="1">
-        <v>-890.178000</v>
+        <v>-890.178</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>73260.548632</v>
+        <v>73260.548632000005</v>
       </c>
       <c r="CD3" s="1">
-        <v>20.350152</v>
+        <v>20.350152000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1822.980000</v>
+        <v>1822.98</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1380.530000</v>
+        <v>-1380.53</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>73089.825657</v>
+        <v>73089.825656999994</v>
       </c>
       <c r="B4" s="1">
-        <v>20.302729</v>
+        <v>20.302728999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>902.435000</v>
+        <v>902.43499999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>-194.378000</v>
+        <v>-194.37799999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>73100.206923</v>
+        <v>73100.206923000005</v>
       </c>
       <c r="G4" s="1">
-        <v>20.305613</v>
+        <v>20.305613000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>919.484000</v>
+        <v>919.48400000000004</v>
       </c>
       <c r="I4" s="1">
-        <v>-165.381000</v>
+        <v>-165.381</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>73110.719134</v>
+        <v>73110.719133999999</v>
       </c>
       <c r="L4" s="1">
-        <v>20.308533</v>
+        <v>20.308533000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>942.457000</v>
+        <v>942.45699999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.795000</v>
+        <v>-118.795</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>73120.612337</v>
+        <v>73120.612336999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>20.311281</v>
+        <v>20.311281000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>949.466000</v>
+        <v>949.46600000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.098000</v>
+        <v>-103.098</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>73130.887955</v>
+        <v>73130.887954999998</v>
       </c>
       <c r="V4" s="1">
-        <v>20.314136</v>
+        <v>20.314136000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>956.425000</v>
+        <v>956.42499999999995</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.582800</v>
+        <v>-88.582800000000006</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>73141.097606</v>
+        <v>73141.097605999996</v>
       </c>
       <c r="AA4" s="1">
         <v>20.316972</v>
       </c>
       <c r="AB4" s="1">
-        <v>964.146000</v>
+        <v>964.14599999999996</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.259000</v>
+        <v>-77.259</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>73151.428778</v>
+        <v>73151.428778000001</v>
       </c>
       <c r="AF4" s="1">
         <v>20.319841</v>
       </c>
       <c r="AG4" s="1">
-        <v>969.246000</v>
+        <v>969.24599999999998</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.131500</v>
+        <v>-75.131500000000003</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>73161.468337</v>
+        <v>73161.468336999998</v>
       </c>
       <c r="AK4" s="1">
-        <v>20.322630</v>
+        <v>20.32263</v>
       </c>
       <c r="AL4" s="1">
-        <v>976.783000</v>
+        <v>976.78300000000002</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.733400</v>
+        <v>-79.733400000000003</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>73172.084702</v>
+        <v>73172.084701999993</v>
       </c>
       <c r="AP4" s="1">
-        <v>20.325579</v>
+        <v>20.325579000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>985.087000</v>
+        <v>985.08699999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.086700</v>
+        <v>-91.086699999999993</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>73183.098830</v>
+        <v>73183.098830000003</v>
       </c>
       <c r="AU4" s="1">
-        <v>20.328639</v>
+        <v>20.328638999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>995.128000</v>
+        <v>995.12800000000004</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.490000</v>
+        <v>-108.49</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>73194.221616</v>
+        <v>73194.221615999995</v>
       </c>
       <c r="AZ4" s="1">
-        <v>20.331728</v>
+        <v>20.331727999999998</v>
       </c>
       <c r="BA4" s="1">
-        <v>1003.510000</v>
+        <v>1003.51</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.927000</v>
+        <v>-123.92700000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>73205.109297</v>
+        <v>73205.109297000003</v>
       </c>
       <c r="BE4" s="1">
-        <v>20.334753</v>
+        <v>20.334752999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1042.520000</v>
+        <v>1042.52</v>
       </c>
       <c r="BG4" s="1">
-        <v>-194.641000</v>
+        <v>-194.64099999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>73216.152755</v>
+        <v>73216.152755000003</v>
       </c>
       <c r="BJ4" s="1">
-        <v>20.337820</v>
+        <v>20.337820000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1109.480000</v>
+        <v>1109.48</v>
       </c>
       <c r="BL4" s="1">
-        <v>-308.838000</v>
+        <v>-308.83800000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>73227.359365</v>
+        <v>73227.359364999997</v>
       </c>
       <c r="BO4" s="1">
         <v>20.340933</v>
       </c>
       <c r="BP4" s="1">
-        <v>1217.530000</v>
+        <v>1217.53</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-487.728000</v>
+        <v>-487.72800000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>73238.812485</v>
+        <v>73238.812485000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>20.344115</v>
+        <v>20.344114999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1338.190000</v>
+        <v>1338.19</v>
       </c>
       <c r="BV4" s="1">
-        <v>-683.130000</v>
+        <v>-683.13</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>73249.888118</v>
+        <v>73249.888118000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>20.347191</v>
+        <v>20.347190999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1473.120000</v>
+        <v>1473.12</v>
       </c>
       <c r="CA4" s="1">
-        <v>-890.233000</v>
+        <v>-890.23299999999995</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>73261.378966</v>
+        <v>73261.378966000004</v>
       </c>
       <c r="CD4" s="1">
-        <v>20.350383</v>
+        <v>20.350383000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1822.970000</v>
+        <v>1822.97</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1379.510000</v>
+        <v>-1379.51</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>73090.168393</v>
       </c>
       <c r="B5" s="1">
-        <v>20.302825</v>
+        <v>20.302824999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>902.297000</v>
+        <v>902.29700000000003</v>
       </c>
       <c r="D5" s="1">
-        <v>-194.448000</v>
+        <v>-194.44800000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>73100.553131</v>
+        <v>73100.553130999993</v>
       </c>
       <c r="G5" s="1">
         <v>20.305709</v>
       </c>
       <c r="H5" s="1">
-        <v>919.583000</v>
+        <v>919.58299999999997</v>
       </c>
       <c r="I5" s="1">
-        <v>-165.323000</v>
+        <v>-165.32300000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>73111.066333</v>
+        <v>73111.066332999995</v>
       </c>
       <c r="L5" s="1">
-        <v>20.308630</v>
+        <v>20.308630000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>942.441000</v>
+        <v>942.44100000000003</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.704000</v>
+        <v>-118.70399999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>73121.043360</v>
+        <v>73121.043359999996</v>
       </c>
       <c r="Q5" s="1">
         <v>20.311401</v>
       </c>
       <c r="R5" s="1">
-        <v>949.475000</v>
+        <v>949.47500000000002</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.103000</v>
+        <v>-103.10299999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>73131.316034</v>
+        <v>73131.316034000003</v>
       </c>
       <c r="V5" s="1">
-        <v>20.314254</v>
+        <v>20.314253999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>956.545000</v>
+        <v>956.54499999999996</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.641300</v>
+        <v>-88.641300000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>73141.396693</v>
+        <v>73141.396693000002</v>
       </c>
       <c r="AA5" s="1">
         <v>20.317055</v>
       </c>
       <c r="AB5" s="1">
-        <v>964.162000</v>
+        <v>964.16200000000003</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.264000</v>
+        <v>-77.263999999999996</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>73151.655447</v>
+        <v>73151.655446999997</v>
       </c>
       <c r="AF5" s="1">
-        <v>20.319904</v>
+        <v>20.319904000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>969.189000</v>
+        <v>969.18899999999996</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.119100</v>
+        <v>-75.119100000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>73161.821451</v>
+        <v>73161.821450999996</v>
       </c>
       <c r="AK5" s="1">
-        <v>20.322728</v>
+        <v>20.322728000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>976.780000</v>
+        <v>976.78</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.710500</v>
+        <v>-79.710499999999996</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>73172.445261</v>
+        <v>73172.445261000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>20.325679</v>
+        <v>20.325679000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>985.099000</v>
+        <v>985.09900000000005</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.107200</v>
+        <v>-91.107200000000006</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>73183.465871</v>
+        <v>73183.465870999993</v>
       </c>
       <c r="AU5" s="1">
-        <v>20.328741</v>
+        <v>20.328741000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>995.134000</v>
+        <v>995.13400000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.492000</v>
+        <v>-108.492</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>73194.937839</v>
+        <v>73194.937839000006</v>
       </c>
       <c r="AZ5" s="1">
         <v>20.331927</v>
       </c>
       <c r="BA5" s="1">
-        <v>1003.520000</v>
+        <v>1003.52</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.928000</v>
+        <v>-123.928</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>73205.498161</v>
+        <v>73205.498160999996</v>
       </c>
       <c r="BE5" s="1">
         <v>20.334861</v>
       </c>
       <c r="BF5" s="1">
-        <v>1042.520000</v>
+        <v>1042.52</v>
       </c>
       <c r="BG5" s="1">
-        <v>-194.648000</v>
+        <v>-194.648</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>73216.522355</v>
+        <v>73216.522354999994</v>
       </c>
       <c r="BJ5" s="1">
         <v>20.337923</v>
       </c>
       <c r="BK5" s="1">
-        <v>1109.410000</v>
+        <v>1109.4100000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-308.830000</v>
+        <v>-308.83</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>73227.756664</v>
@@ -1447,467 +1863,467 @@
         <v>20.341044</v>
       </c>
       <c r="BP5" s="1">
-        <v>1217.540000</v>
+        <v>1217.54</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-487.716000</v>
+        <v>-487.71600000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>73239.561945</v>
+        <v>73239.561944999994</v>
       </c>
       <c r="BT5" s="1">
-        <v>20.344323</v>
+        <v>20.344322999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1338.240000</v>
+        <v>1338.24</v>
       </c>
       <c r="BV5" s="1">
-        <v>-683.118000</v>
+        <v>-683.11800000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>73250.344443</v>
+        <v>73250.344442999994</v>
       </c>
       <c r="BY5" s="1">
-        <v>20.347318</v>
+        <v>20.347318000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1473.090000</v>
+        <v>1473.09</v>
       </c>
       <c r="CA5" s="1">
-        <v>-890.252000</v>
+        <v>-890.25199999999995</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>73261.585104</v>
+        <v>73261.585103999998</v>
       </c>
       <c r="CD5" s="1">
-        <v>20.350440</v>
+        <v>20.350439999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1821.670000</v>
+        <v>1821.67</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1379.560000</v>
+        <v>-1379.56</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>73090.520552</v>
+        <v>73090.520552000002</v>
       </c>
       <c r="B6" s="1">
-        <v>20.302922</v>
+        <v>20.302921999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>902.534000</v>
+        <v>902.53399999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-194.514000</v>
+        <v>-194.51400000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>73100.898843</v>
+        <v>73100.898843000003</v>
       </c>
       <c r="G6" s="1">
-        <v>20.305805</v>
+        <v>20.305804999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>919.350000</v>
+        <v>919.35</v>
       </c>
       <c r="I6" s="1">
-        <v>-164.983000</v>
+        <v>-164.983</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>73111.491933</v>
+        <v>73111.491932999998</v>
       </c>
       <c r="L6" s="1">
-        <v>20.308748</v>
+        <v>20.308748000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>942.402000</v>
+        <v>942.40200000000004</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.763000</v>
+        <v>-118.76300000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>73121.325584</v>
+        <v>73121.325584000006</v>
       </c>
       <c r="Q6" s="1">
-        <v>20.311479</v>
+        <v>20.311478999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>949.505000</v>
+        <v>949.505</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.155000</v>
+        <v>-103.155</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>73131.583844</v>
+        <v>73131.583843999993</v>
       </c>
       <c r="V6" s="1">
-        <v>20.314329</v>
+        <v>20.314329000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>956.410000</v>
+        <v>956.41</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.592000</v>
+        <v>-88.591999999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>73141.747861</v>
+        <v>73141.747860999996</v>
       </c>
       <c r="AA6" s="1">
         <v>20.317152</v>
       </c>
       <c r="AB6" s="1">
-        <v>964.155000</v>
+        <v>964.15499999999997</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.285100</v>
+        <v>-77.2851</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>73152.001656</v>
+        <v>73152.001655999993</v>
       </c>
       <c r="AF6" s="1">
-        <v>20.320000</v>
+        <v>20.32</v>
       </c>
       <c r="AG6" s="1">
-        <v>969.206000</v>
+        <v>969.20600000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.108200</v>
+        <v>-75.108199999999997</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>73162.173610</v>
+        <v>73162.173609999998</v>
       </c>
       <c r="AK6" s="1">
-        <v>20.322826</v>
+        <v>20.322825999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>976.789000</v>
+        <v>976.78899999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.715100</v>
+        <v>-79.715100000000007</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>73173.163499</v>
+        <v>73173.163499000002</v>
       </c>
       <c r="AP6" s="1">
         <v>20.325879</v>
       </c>
       <c r="AQ6" s="1">
-        <v>985.100000</v>
+        <v>985.1</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.091600</v>
+        <v>-91.0916</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>73184.194493</v>
+        <v>73184.194493000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>20.328943</v>
+        <v>20.328942999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>995.138000</v>
+        <v>995.13800000000003</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.481000</v>
+        <v>-108.48099999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>73195.298926</v>
+        <v>73195.298926000003</v>
       </c>
       <c r="AZ6" s="1">
         <v>20.332027</v>
       </c>
       <c r="BA6" s="1">
-        <v>1003.500000</v>
+        <v>1003.5</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.926000</v>
+        <v>-123.926</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>73205.860241</v>
+        <v>73205.860241000002</v>
       </c>
       <c r="BE6" s="1">
         <v>20.334961</v>
       </c>
       <c r="BF6" s="1">
-        <v>1042.510000</v>
+        <v>1042.51</v>
       </c>
       <c r="BG6" s="1">
-        <v>-194.674000</v>
+        <v>-194.67400000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>73216.906146</v>
+        <v>73216.906145999994</v>
       </c>
       <c r="BJ6" s="1">
-        <v>20.338029</v>
+        <v>20.338028999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1109.400000</v>
+        <v>1109.4000000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-308.787000</v>
+        <v>-308.78699999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>73228.505586</v>
+        <v>73228.505585999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>20.341252</v>
+        <v>20.341252000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1217.530000</v>
+        <v>1217.53</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-487.729000</v>
+        <v>-487.72899999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>73239.672515</v>
+        <v>73239.672514999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>20.344353</v>
+        <v>20.344353000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>1338.190000</v>
+        <v>1338.19</v>
       </c>
       <c r="BV6" s="1">
-        <v>-683.184000</v>
+        <v>-683.18399999999997</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>73250.789845</v>
+        <v>73250.789845000007</v>
       </c>
       <c r="BY6" s="1">
-        <v>20.347442</v>
+        <v>20.347442000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1473.130000</v>
+        <v>1473.13</v>
       </c>
       <c r="CA6" s="1">
-        <v>-890.192000</v>
+        <v>-890.19200000000001</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>73262.099623</v>
+        <v>73262.099623000002</v>
       </c>
       <c r="CD6" s="1">
         <v>20.350583</v>
       </c>
       <c r="CE6" s="1">
-        <v>1821.880000</v>
+        <v>1821.88</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1379.530000</v>
+        <v>-1379.53</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>73090.952104</v>
+        <v>73090.952103999996</v>
       </c>
       <c r="B7" s="1">
-        <v>20.303042</v>
+        <v>20.303042000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>902.416000</v>
+        <v>902.41600000000005</v>
       </c>
       <c r="D7" s="1">
-        <v>-194.508000</v>
+        <v>-194.50800000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>73101.342763</v>
+        <v>73101.342762999993</v>
       </c>
       <c r="G7" s="1">
-        <v>20.305929</v>
+        <v>20.305928999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>919.819000</v>
+        <v>919.81899999999996</v>
       </c>
       <c r="I7" s="1">
-        <v>-165.260000</v>
+        <v>-165.26</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>73111.782557</v>
+        <v>73111.782556999999</v>
       </c>
       <c r="L7" s="1">
-        <v>20.308828</v>
+        <v>20.308827999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>942.571000</v>
+        <v>942.57100000000003</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.647000</v>
+        <v>-118.64700000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>73121.671295</v>
+        <v>73121.671294999993</v>
       </c>
       <c r="Q7" s="1">
-        <v>20.311575</v>
+        <v>20.311575000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>949.462000</v>
+        <v>949.46199999999999</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.155000</v>
+        <v>-103.155</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>73131.929846</v>
+        <v>73131.929845999999</v>
       </c>
       <c r="V7" s="1">
         <v>20.314425</v>
       </c>
       <c r="W7" s="1">
-        <v>956.674000</v>
+        <v>956.67399999999998</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.565200</v>
+        <v>-88.565200000000004</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>73142.095592</v>
+        <v>73142.095591999998</v>
       </c>
       <c r="AA7" s="1">
         <v>20.317249</v>
       </c>
       <c r="AB7" s="1">
-        <v>964.231000</v>
+        <v>964.23099999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.300100</v>
+        <v>-77.3001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>73152.684647</v>
+        <v>73152.684647000002</v>
       </c>
       <c r="AF7" s="1">
-        <v>20.320190</v>
+        <v>20.32019</v>
       </c>
       <c r="AG7" s="1">
-        <v>969.226000</v>
+        <v>969.226</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.081700</v>
+        <v>-75.081699999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>73162.872473</v>
+        <v>73162.872472999996</v>
       </c>
       <c r="AK7" s="1">
-        <v>20.323020</v>
+        <v>20.32302</v>
       </c>
       <c r="AL7" s="1">
-        <v>976.766000</v>
+        <v>976.76599999999996</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.732100</v>
+        <v>-79.732100000000003</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>73173.524555</v>
+        <v>73173.524554999996</v>
       </c>
       <c r="AP7" s="1">
         <v>20.325979</v>
       </c>
       <c r="AQ7" s="1">
-        <v>985.079000</v>
+        <v>985.07899999999995</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.109700</v>
+        <v>-91.109700000000004</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>73184.585341</v>
+        <v>73184.585340999998</v>
       </c>
       <c r="AU7" s="1">
         <v>20.329051</v>
       </c>
       <c r="AV7" s="1">
-        <v>995.114000</v>
+        <v>995.11400000000003</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.471000</v>
+        <v>-108.471</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>73195.656078</v>
@@ -1916,754 +2332,754 @@
         <v>20.332127</v>
       </c>
       <c r="BA7" s="1">
-        <v>1003.520000</v>
+        <v>1003.52</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.918000</v>
+        <v>-123.91800000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>73206.545711</v>
+        <v>73206.545710999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>20.335152</v>
+        <v>20.335152000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1042.540000</v>
+        <v>1042.54</v>
       </c>
       <c r="BG7" s="1">
-        <v>-194.625000</v>
+        <v>-194.625</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>73217.399665</v>
+        <v>73217.399665000004</v>
       </c>
       <c r="BJ7" s="1">
-        <v>20.338167</v>
+        <v>20.338166999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1109.440000</v>
+        <v>1109.44</v>
       </c>
       <c r="BL7" s="1">
-        <v>-308.795000</v>
+        <v>-308.79500000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>73228.996625</v>
       </c>
       <c r="BO7" s="1">
-        <v>20.341388</v>
+        <v>20.341387999999998</v>
       </c>
       <c r="BP7" s="1">
-        <v>1217.530000</v>
+        <v>1217.53</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-487.699000</v>
+        <v>-487.69900000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>73240.109028</v>
+        <v>73240.109028000006</v>
       </c>
       <c r="BT7" s="1">
-        <v>20.344475</v>
+        <v>20.344474999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1338.200000</v>
+        <v>1338.2</v>
       </c>
       <c r="BV7" s="1">
-        <v>-683.156000</v>
+        <v>-683.15599999999995</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>73251.242693</v>
+        <v>73251.242692999993</v>
       </c>
       <c r="BY7" s="1">
-        <v>20.347567</v>
+        <v>20.347567000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1473.130000</v>
+        <v>1473.13</v>
       </c>
       <c r="CA7" s="1">
-        <v>-890.315000</v>
+        <v>-890.31500000000005</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>73262.654645</v>
+        <v>73262.654645000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>20.350737</v>
+        <v>20.350736999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1822.860000</v>
+        <v>1822.86</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1379.360000</v>
+        <v>-1379.36</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>73091.201064</v>
+        <v>73091.201063999993</v>
       </c>
       <c r="B8" s="1">
-        <v>20.303111</v>
+        <v>20.303111000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>902.369000</v>
+        <v>902.36900000000003</v>
       </c>
       <c r="D8" s="1">
-        <v>-194.453000</v>
+        <v>-194.453</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>73101.612091</v>
+        <v>73101.612091000003</v>
       </c>
       <c r="G8" s="1">
         <v>20.306003</v>
       </c>
       <c r="H8" s="1">
-        <v>919.275000</v>
+        <v>919.27499999999998</v>
       </c>
       <c r="I8" s="1">
-        <v>-165.247000</v>
+        <v>-165.24700000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>73112.128305</v>
+        <v>73112.128305000006</v>
       </c>
       <c r="L8" s="1">
-        <v>20.308925</v>
+        <v>20.308924999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>942.314000</v>
+        <v>942.31399999999996</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.858000</v>
+        <v>-118.858</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>73122.020976</v>
       </c>
       <c r="Q8" s="1">
-        <v>20.311672</v>
+        <v>20.311672000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>949.441000</v>
+        <v>949.44100000000003</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.120000</v>
+        <v>-103.12</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>73132.271330</v>
+        <v>73132.271330000003</v>
       </c>
       <c r="V8" s="1">
-        <v>20.314520</v>
+        <v>20.314520000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>956.527000</v>
+        <v>956.52700000000004</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.721600</v>
+        <v>-88.721599999999995</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>73142.787971</v>
+        <v>73142.787970999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>20.317441</v>
+        <v>20.317440999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>964.277000</v>
+        <v>964.27700000000004</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.287000</v>
+        <v>-77.287000000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>73153.031878</v>
+        <v>73153.031877999994</v>
       </c>
       <c r="AF8" s="1">
         <v>20.320287</v>
       </c>
       <c r="AG8" s="1">
-        <v>969.256000</v>
+        <v>969.25599999999997</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.107800</v>
+        <v>-75.107799999999997</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>73163.220169</v>
+        <v>73163.220168999993</v>
       </c>
       <c r="AK8" s="1">
         <v>20.323117</v>
       </c>
       <c r="AL8" s="1">
-        <v>976.766000</v>
+        <v>976.76599999999996</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.745600</v>
+        <v>-79.745599999999996</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>73173.888123</v>
+        <v>73173.888122999997</v>
       </c>
       <c r="AP8" s="1">
-        <v>20.326080</v>
+        <v>20.326080000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>985.094000</v>
+        <v>985.09400000000005</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.095900</v>
+        <v>-91.0959</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>73185.272797</v>
+        <v>73185.272796999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>20.329242</v>
+        <v>20.329242000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>995.122000</v>
+        <v>995.12199999999996</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.466000</v>
+        <v>-108.46599999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>73196.319197</v>
+        <v>73196.319197000004</v>
       </c>
       <c r="AZ8" s="1">
-        <v>20.332311</v>
+        <v>20.332311000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1003.510000</v>
+        <v>1003.51</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.907000</v>
+        <v>-123.907</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>73206.971279</v>
+        <v>73206.971279000005</v>
       </c>
       <c r="BE8" s="1">
-        <v>20.335270</v>
+        <v>20.335270000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1042.520000</v>
+        <v>1042.52</v>
       </c>
       <c r="BG8" s="1">
-        <v>-194.660000</v>
+        <v>-194.66</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>73217.655601</v>
+        <v>73217.655601000006</v>
       </c>
       <c r="BJ8" s="1">
         <v>20.338238</v>
       </c>
       <c r="BK8" s="1">
-        <v>1109.410000</v>
+        <v>1109.4100000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-308.832000</v>
+        <v>-308.83199999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>73229.412802</v>
+        <v>73229.412802000006</v>
       </c>
       <c r="BO8" s="1">
         <v>20.341504</v>
       </c>
       <c r="BP8" s="1">
-        <v>1217.550000</v>
+        <v>1217.55</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-487.710000</v>
+        <v>-487.71</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>73240.521172</v>
+        <v>73240.521171999993</v>
       </c>
       <c r="BT8" s="1">
-        <v>20.344589</v>
+        <v>20.344588999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1338.210000</v>
+        <v>1338.21</v>
       </c>
       <c r="BV8" s="1">
-        <v>-683.178000</v>
+        <v>-683.178</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>73251.695044</v>
+        <v>73251.695043999993</v>
       </c>
       <c r="BY8" s="1">
         <v>20.347693</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1473.060000</v>
+        <v>1473.06</v>
       </c>
       <c r="CA8" s="1">
-        <v>-890.215000</v>
+        <v>-890.21500000000003</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>73263.186356</v>
+        <v>73263.186356000006</v>
       </c>
       <c r="CD8" s="1">
-        <v>20.350885</v>
+        <v>20.350885000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>1821.510000</v>
+        <v>1821.51</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1379.660000</v>
+        <v>-1379.66</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>73091.563676</v>
+        <v>73091.563676000005</v>
       </c>
       <c r="B9" s="1">
-        <v>20.303212</v>
+        <v>20.303211999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>902.316000</v>
+        <v>902.31600000000003</v>
       </c>
       <c r="D9" s="1">
-        <v>-194.500000</v>
+        <v>-194.5</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>73101.970202</v>
+        <v>73101.970201999997</v>
       </c>
       <c r="G9" s="1">
         <v>20.306103</v>
       </c>
       <c r="H9" s="1">
-        <v>919.356000</v>
+        <v>919.35599999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-165.552000</v>
+        <v>-165.55199999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>73112.473484</v>
+        <v>73112.473484000002</v>
       </c>
       <c r="L9" s="1">
-        <v>20.309020</v>
+        <v>20.30902</v>
       </c>
       <c r="M9" s="1">
-        <v>942.455000</v>
+        <v>942.45500000000004</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.625000</v>
+        <v>-118.625</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>73122.717854</v>
+        <v>73122.717854000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>20.311866</v>
+        <v>20.311865999999998</v>
       </c>
       <c r="R9" s="1">
-        <v>949.422000</v>
+        <v>949.42200000000003</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.138000</v>
+        <v>-103.13800000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>73132.970192</v>
+        <v>73132.970191999993</v>
       </c>
       <c r="V9" s="1">
-        <v>20.314714</v>
+        <v>20.314713999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>956.599000</v>
+        <v>956.59900000000005</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.592600</v>
+        <v>-88.592600000000004</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>73143.139141</v>
+        <v>73143.139141000007</v>
       </c>
       <c r="AA9" s="1">
         <v>20.317539</v>
       </c>
       <c r="AB9" s="1">
-        <v>964.174000</v>
+        <v>964.17399999999998</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.260600</v>
+        <v>-77.260599999999997</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>73153.372102</v>
+        <v>73153.372101999994</v>
       </c>
       <c r="AF9" s="1">
-        <v>20.320381</v>
+        <v>20.320381000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>969.306000</v>
+        <v>969.30600000000004</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.096600</v>
+        <v>-75.096599999999995</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>73163.569354</v>
+        <v>73163.569354000007</v>
       </c>
       <c r="AK9" s="1">
         <v>20.323214</v>
       </c>
       <c r="AL9" s="1">
-        <v>976.769000</v>
+        <v>976.76900000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.697400</v>
+        <v>-79.697400000000002</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>73174.566154</v>
       </c>
       <c r="AP9" s="1">
-        <v>20.326268</v>
+        <v>20.326267999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>985.100000</v>
+        <v>985.1</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.104000</v>
+        <v>-91.103999999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>73185.711260</v>
+        <v>73185.711259999996</v>
       </c>
       <c r="AU9" s="1">
-        <v>20.329364</v>
+        <v>20.329364000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>995.122000</v>
+        <v>995.12199999999996</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.466000</v>
+        <v>-108.46599999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>73196.762620</v>
+        <v>73196.762619999994</v>
       </c>
       <c r="AZ9" s="1">
-        <v>20.332434</v>
+        <v>20.332433999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1003.510000</v>
+        <v>1003.51</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.923000</v>
+        <v>-123.923</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>73207.331871</v>
+        <v>73207.331871000002</v>
       </c>
       <c r="BE9" s="1">
-        <v>20.335370</v>
+        <v>20.335370000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1042.510000</v>
+        <v>1042.51</v>
       </c>
       <c r="BG9" s="1">
-        <v>-194.674000</v>
+        <v>-194.67400000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>73218.052897</v>
+        <v>73218.052897000001</v>
       </c>
       <c r="BJ9" s="1">
         <v>20.338348</v>
       </c>
       <c r="BK9" s="1">
-        <v>1109.450000</v>
+        <v>1109.45</v>
       </c>
       <c r="BL9" s="1">
-        <v>-308.778000</v>
+        <v>-308.77800000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>73229.812048</v>
+        <v>73229.812048000007</v>
       </c>
       <c r="BO9" s="1">
         <v>20.341614</v>
       </c>
       <c r="BP9" s="1">
-        <v>1217.520000</v>
+        <v>1217.52</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-487.741000</v>
+        <v>-487.74099999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>73240.951698</v>
+        <v>73240.951698000004</v>
       </c>
       <c r="BT9" s="1">
-        <v>20.344709</v>
+        <v>20.344709000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>1338.200000</v>
+        <v>1338.2</v>
       </c>
       <c r="BV9" s="1">
-        <v>-683.164000</v>
+        <v>-683.16399999999999</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>73252.148419</v>
+        <v>73252.148419000005</v>
       </c>
       <c r="BY9" s="1">
-        <v>20.347819</v>
+        <v>20.347819000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1473.010000</v>
+        <v>1473.01</v>
       </c>
       <c r="CA9" s="1">
-        <v>-890.239000</v>
+        <v>-890.23900000000003</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>73263.701459</v>
+        <v>73263.701459000004</v>
       </c>
       <c r="CD9" s="1">
-        <v>20.351028</v>
+        <v>20.351027999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1822.280000</v>
+        <v>1822.28</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1380.930000</v>
+        <v>-1380.93</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>73091.905420</v>
+        <v>73091.905419999996</v>
       </c>
       <c r="B10" s="1">
         <v>20.303307</v>
       </c>
       <c r="C10" s="1">
-        <v>902.383000</v>
+        <v>902.38300000000004</v>
       </c>
       <c r="D10" s="1">
-        <v>-194.425000</v>
+        <v>-194.42500000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>73102.660180</v>
+        <v>73102.660180000006</v>
       </c>
       <c r="G10" s="1">
-        <v>20.306294</v>
+        <v>20.306294000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>919.226000</v>
+        <v>919.226</v>
       </c>
       <c r="I10" s="1">
-        <v>-165.216000</v>
+        <v>-165.21600000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>73113.165937</v>
+        <v>73113.165936999998</v>
       </c>
       <c r="L10" s="1">
         <v>20.309213</v>
       </c>
       <c r="M10" s="1">
-        <v>942.316000</v>
+        <v>942.31600000000003</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.720000</v>
+        <v>-118.72</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>73123.066542</v>
       </c>
       <c r="Q10" s="1">
-        <v>20.311963</v>
+        <v>20.311962999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>949.474000</v>
+        <v>949.47400000000005</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.103000</v>
+        <v>-103.10299999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>73133.320368</v>
+        <v>73133.320368000001</v>
       </c>
       <c r="V10" s="1">
-        <v>20.314811</v>
+        <v>20.314810999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>956.473000</v>
+        <v>956.47299999999996</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.462100</v>
+        <v>-88.462100000000007</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>73143.489810</v>
+        <v>73143.489809999999</v>
       </c>
       <c r="AA10" s="1">
         <v>20.317636</v>
       </c>
       <c r="AB10" s="1">
-        <v>964.210000</v>
+        <v>964.21</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.307000</v>
+        <v>-77.307000000000002</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>73154.035781</v>
+        <v>73154.035780999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>20.320565</v>
+        <v>20.320564999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>969.240000</v>
+        <v>969.24</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.118900</v>
+        <v>-75.118899999999996</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>73164.233033</v>
+        <v>73164.233032999997</v>
       </c>
       <c r="AK10" s="1">
-        <v>20.323398</v>
+        <v>20.323398000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>976.788000</v>
+        <v>976.78800000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.722600</v>
+        <v>-79.7226</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>73174.987753</v>
+        <v>73174.987752999994</v>
       </c>
       <c r="AP10" s="1">
-        <v>20.326385</v>
+        <v>20.326384999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>985.080000</v>
+        <v>985.08</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.085000</v>
+        <v>-91.084999999999994</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>73186.077802</v>
@@ -2672,73 +3088,73 @@
         <v>20.329466</v>
       </c>
       <c r="AV10" s="1">
-        <v>995.116000</v>
+        <v>995.11599999999999</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.489000</v>
+        <v>-108.489</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>73197.122220</v>
+        <v>73197.122220000005</v>
       </c>
       <c r="AZ10" s="1">
-        <v>20.332534</v>
+        <v>20.332533999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1003.520000</v>
+        <v>1003.52</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.920000</v>
+        <v>-123.92</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>73207.691472</v>
+        <v>73207.691472000006</v>
       </c>
       <c r="BE10" s="1">
-        <v>20.335470</v>
+        <v>20.335470000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1042.520000</v>
+        <v>1042.52</v>
       </c>
       <c r="BG10" s="1">
-        <v>-194.644000</v>
+        <v>-194.64400000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>73218.489881</v>
+        <v>73218.489881000001</v>
       </c>
       <c r="BJ10" s="1">
         <v>20.338469</v>
       </c>
       <c r="BK10" s="1">
-        <v>1109.460000</v>
+        <v>1109.46</v>
       </c>
       <c r="BL10" s="1">
-        <v>-308.823000</v>
+        <v>-308.82299999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>73230.253488</v>
+        <v>73230.253488000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>20.341737</v>
+        <v>20.341736999999998</v>
       </c>
       <c r="BP10" s="1">
-        <v>1217.550000</v>
+        <v>1217.55</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-487.712000</v>
+        <v>-487.71199999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>73241.379751</v>
@@ -2747,377 +3163,377 @@
         <v>20.344828</v>
       </c>
       <c r="BU10" s="1">
-        <v>1338.160000</v>
+        <v>1338.16</v>
       </c>
       <c r="BV10" s="1">
-        <v>-683.176000</v>
+        <v>-683.17600000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>73252.569119</v>
+        <v>73252.569119000007</v>
       </c>
       <c r="BY10" s="1">
-        <v>20.347936</v>
+        <v>20.347936000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1472.990000</v>
+        <v>1472.99</v>
       </c>
       <c r="CA10" s="1">
-        <v>-890.227000</v>
+        <v>-890.22699999999998</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>73264.222532</v>
       </c>
       <c r="CD10" s="1">
-        <v>20.351173</v>
+        <v>20.351172999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1823.290000</v>
+        <v>1823.29</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1380.000000</v>
+        <v>-1380</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>73092.589862</v>
+        <v>73092.589861999993</v>
       </c>
       <c r="B11" s="1">
         <v>20.303497</v>
       </c>
       <c r="C11" s="1">
-        <v>902.332000</v>
+        <v>902.33199999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-194.450000</v>
+        <v>-194.45</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>73103.004857</v>
+        <v>73103.004857000007</v>
       </c>
       <c r="G11" s="1">
-        <v>20.306390</v>
+        <v>20.30639</v>
       </c>
       <c r="H11" s="1">
-        <v>919.666000</v>
+        <v>919.66600000000005</v>
       </c>
       <c r="I11" s="1">
-        <v>-164.859000</v>
+        <v>-164.85900000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>73113.514882</v>
+        <v>73113.514882000003</v>
       </c>
       <c r="L11" s="1">
-        <v>20.309310</v>
+        <v>20.30931</v>
       </c>
       <c r="M11" s="1">
-        <v>942.413000</v>
+        <v>942.41300000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.736000</v>
+        <v>-118.736</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>73123.414237</v>
+        <v>73123.414237000005</v>
       </c>
       <c r="Q11" s="1">
-        <v>20.312060</v>
+        <v>20.312059999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>949.490000</v>
+        <v>949.49</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.150000</v>
+        <v>-103.15</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>73133.664560</v>
+        <v>73133.664560000005</v>
       </c>
       <c r="V11" s="1">
-        <v>20.314907</v>
+        <v>20.314907000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>956.418000</v>
+        <v>956.41800000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.685700</v>
+        <v>-88.685699999999997</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>73144.155442</v>
+        <v>73144.155442000003</v>
       </c>
       <c r="AA11" s="1">
-        <v>20.317821</v>
+        <v>20.317820999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>964.253000</v>
+        <v>964.25300000000004</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.327200</v>
+        <v>-77.327200000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>73154.404276</v>
+        <v>73154.404276000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>20.320668</v>
+        <v>20.320668000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>969.200000</v>
+        <v>969.2</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.131200</v>
+        <v>-75.131200000000007</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>73164.615911</v>
+        <v>73164.615911000001</v>
       </c>
       <c r="AK11" s="1">
         <v>20.323504</v>
       </c>
       <c r="AL11" s="1">
-        <v>976.786000</v>
+        <v>976.78599999999994</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.738500</v>
+        <v>-79.738500000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>73175.366200</v>
+        <v>73175.366200000004</v>
       </c>
       <c r="AP11" s="1">
-        <v>20.326491</v>
+        <v>20.326491000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>985.082000</v>
+        <v>985.08199999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.096800</v>
+        <v>-91.096800000000002</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>73186.442858</v>
+        <v>73186.442857999995</v>
       </c>
       <c r="AU11" s="1">
-        <v>20.329567</v>
+        <v>20.329567000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>995.129000</v>
+        <v>995.12900000000002</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.482000</v>
+        <v>-108.482</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>73197.477852</v>
+        <v>73197.477851999996</v>
       </c>
       <c r="AZ11" s="1">
-        <v>20.332633</v>
+        <v>20.332633000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1003.520000</v>
+        <v>1003.52</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.911000</v>
+        <v>-123.911</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>73208.123057</v>
+        <v>73208.123057000004</v>
       </c>
       <c r="BE11" s="1">
-        <v>20.335590</v>
+        <v>20.33559</v>
       </c>
       <c r="BF11" s="1">
-        <v>1042.540000</v>
+        <v>1042.54</v>
       </c>
       <c r="BG11" s="1">
-        <v>-194.667000</v>
+        <v>-194.667</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>73218.809295</v>
+        <v>73218.809294999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>20.338558</v>
+        <v>20.338557999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1109.420000</v>
+        <v>1109.42</v>
       </c>
       <c r="BL11" s="1">
-        <v>-308.816000</v>
+        <v>-308.81599999999997</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>73230.631937</v>
+        <v>73230.631936999998</v>
       </c>
       <c r="BO11" s="1">
         <v>20.341842</v>
       </c>
       <c r="BP11" s="1">
-        <v>1217.560000</v>
+        <v>1217.56</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-487.743000</v>
+        <v>-487.74299999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>73241.789937</v>
+        <v>73241.789936999994</v>
       </c>
       <c r="BT11" s="1">
         <v>20.344942</v>
       </c>
       <c r="BU11" s="1">
-        <v>1338.230000</v>
+        <v>1338.23</v>
       </c>
       <c r="BV11" s="1">
-        <v>-683.156000</v>
+        <v>-683.15599999999995</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>73252.991586</v>
+        <v>73252.991586000004</v>
       </c>
       <c r="BY11" s="1">
         <v>20.348053</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1472.940000</v>
+        <v>1472.94</v>
       </c>
       <c r="CA11" s="1">
-        <v>-890.202000</v>
+        <v>-890.202</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>73264.739330</v>
+        <v>73264.739329999997</v>
       </c>
       <c r="CD11" s="1">
-        <v>20.351316</v>
+        <v>20.351316000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1823.240000</v>
+        <v>1823.24</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1380.510000</v>
+        <v>-1380.51</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>73092.930614</v>
+        <v>73092.930613999997</v>
       </c>
       <c r="B12" s="1">
-        <v>20.303592</v>
+        <v>20.303591999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>902.421000</v>
+        <v>902.42100000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>-194.600000</v>
+        <v>-194.6</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>73103.348584</v>
+        <v>73103.348584000007</v>
       </c>
       <c r="G12" s="1">
         <v>20.306486</v>
       </c>
       <c r="H12" s="1">
-        <v>918.966000</v>
+        <v>918.96600000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-164.974000</v>
+        <v>-164.97399999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>73113.858314</v>
+        <v>73113.858313999997</v>
       </c>
       <c r="L12" s="1">
-        <v>20.309405</v>
+        <v>20.309405000000002</v>
       </c>
       <c r="M12" s="1">
-        <v>942.466000</v>
+        <v>942.46600000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.657000</v>
+        <v>-118.657</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>73124.084828</v>
+        <v>73124.084828000006</v>
       </c>
       <c r="Q12" s="1">
-        <v>20.312246</v>
+        <v>20.312245999999998</v>
       </c>
       <c r="R12" s="1">
-        <v>949.463000</v>
+        <v>949.46299999999997</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.160000</v>
+        <v>-103.16</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>73134.334159</v>
+        <v>73134.334159000005</v>
       </c>
       <c r="V12" s="1">
-        <v>20.315093</v>
+        <v>20.315093000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>956.542000</v>
+        <v>956.54200000000003</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.693100</v>
+        <v>-88.693100000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>73144.534881</v>
@@ -3126,1223 +3542,1223 @@
         <v>20.317926</v>
       </c>
       <c r="AB12" s="1">
-        <v>964.234000</v>
+        <v>964.23400000000004</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.323200</v>
+        <v>-77.3232</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>73154.746515</v>
+        <v>73154.746515000006</v>
       </c>
       <c r="AF12" s="1">
-        <v>20.320763</v>
+        <v>20.320762999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>969.257000</v>
+        <v>969.25699999999995</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.116000</v>
+        <v>-75.116</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>73164.961126</v>
+        <v>73164.961125999995</v>
       </c>
       <c r="AK12" s="1">
-        <v>20.323600</v>
+        <v>20.323599999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>976.795000</v>
+        <v>976.79499999999996</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.710000</v>
+        <v>-79.709999999999994</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>73175.727784</v>
+        <v>73175.727784000002</v>
       </c>
       <c r="AP12" s="1">
-        <v>20.326591</v>
+        <v>20.326591000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>985.095000</v>
+        <v>985.09500000000003</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.093100</v>
+        <v>-91.093100000000007</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>73186.867466</v>
+        <v>73186.867465999996</v>
       </c>
       <c r="AU12" s="1">
-        <v>20.329685</v>
+        <v>20.329685000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>995.110000</v>
+        <v>995.11</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.505000</v>
+        <v>-108.505</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>73197.907388</v>
+        <v>73197.907388000007</v>
       </c>
       <c r="AZ12" s="1">
-        <v>20.332752</v>
+        <v>20.332751999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1003.520000</v>
+        <v>1003.52</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.916000</v>
+        <v>-123.916</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>73208.413149</v>
       </c>
       <c r="BE12" s="1">
-        <v>20.335670</v>
+        <v>20.33567</v>
       </c>
       <c r="BF12" s="1">
-        <v>1042.510000</v>
+        <v>1042.51</v>
       </c>
       <c r="BG12" s="1">
-        <v>-194.651000</v>
+        <v>-194.65100000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>73219.178814</v>
+        <v>73219.178813999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>20.338661</v>
+        <v>20.338660999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1109.450000</v>
+        <v>1109.45</v>
       </c>
       <c r="BL12" s="1">
-        <v>-308.777000</v>
+        <v>-308.77699999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>73231.052543</v>
+        <v>73231.052542999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>20.341959</v>
+        <v>20.341958999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1217.540000</v>
+        <v>1217.54</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-487.748000</v>
+        <v>-487.74799999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>73242.224961</v>
       </c>
       <c r="BT12" s="1">
-        <v>20.345062</v>
+        <v>20.345061999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1338.200000</v>
+        <v>1338.2</v>
       </c>
       <c r="BV12" s="1">
-        <v>-683.066000</v>
+        <v>-683.06600000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>73253.441457</v>
+        <v>73253.441456999994</v>
       </c>
       <c r="BY12" s="1">
-        <v>20.348178</v>
+        <v>20.348178000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1473.090000</v>
+        <v>1473.09</v>
       </c>
       <c r="CA12" s="1">
-        <v>-890.267000</v>
+        <v>-890.26700000000005</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>73265.292879</v>
+        <v>73265.292879000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>20.351470</v>
+        <v>20.351469999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1822.120000</v>
+        <v>1822.12</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1380.950000</v>
+        <v>-1380.95</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>73093.272357</v>
+        <v>73093.272356999994</v>
       </c>
       <c r="B13" s="1">
         <v>20.303687</v>
       </c>
       <c r="C13" s="1">
-        <v>902.433000</v>
+        <v>902.43299999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-194.597000</v>
+        <v>-194.59700000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>73104.004296</v>
+        <v>73104.004295999999</v>
       </c>
       <c r="G13" s="1">
-        <v>20.306668</v>
+        <v>20.306667999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>919.166000</v>
+        <v>919.16600000000005</v>
       </c>
       <c r="I13" s="1">
-        <v>-165.850000</v>
+        <v>-165.85</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>73114.537338</v>
+        <v>73114.537337999995</v>
       </c>
       <c r="L13" s="1">
-        <v>20.309594</v>
+        <v>20.309594000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>942.367000</v>
+        <v>942.36699999999996</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.691000</v>
+        <v>-118.691</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>73124.460301</v>
+        <v>73124.460300999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>20.312350</v>
+        <v>20.312349999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>949.455000</v>
+        <v>949.45500000000004</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.126000</v>
+        <v>-103.126</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>73134.694787</v>
       </c>
       <c r="V13" s="1">
-        <v>20.315193</v>
+        <v>20.315193000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>956.451000</v>
+        <v>956.45100000000002</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.600900</v>
+        <v>-88.600899999999996</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>73144.882114</v>
+        <v>73144.882114000007</v>
       </c>
       <c r="AA13" s="1">
         <v>20.318023</v>
       </c>
       <c r="AB13" s="1">
-        <v>964.219000</v>
+        <v>964.21900000000005</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.270700</v>
+        <v>-77.270700000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>73155.092723</v>
+        <v>73155.092722999994</v>
       </c>
       <c r="AF13" s="1">
-        <v>20.320859</v>
+        <v>20.320858999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>969.230000</v>
+        <v>969.23</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.155500</v>
+        <v>-75.155500000000004</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>73165.313782</v>
+        <v>73165.313781999997</v>
       </c>
       <c r="AK13" s="1">
         <v>20.323698</v>
       </c>
       <c r="AL13" s="1">
-        <v>976.776000</v>
+        <v>976.77599999999995</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.734900</v>
+        <v>-79.734899999999996</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>73176.155336</v>
+        <v>73176.155335999996</v>
       </c>
       <c r="AP13" s="1">
-        <v>20.326710</v>
+        <v>20.326709999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>985.111000</v>
+        <v>985.11099999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.101500</v>
+        <v>-91.101500000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>73187.173496</v>
+        <v>73187.173496000003</v>
       </c>
       <c r="AU13" s="1">
-        <v>20.329770</v>
+        <v>20.32977</v>
       </c>
       <c r="AV13" s="1">
-        <v>995.123000</v>
+        <v>995.12300000000005</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.491000</v>
+        <v>-108.491</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>73198.200522</v>
+        <v>73198.200521999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>20.332833</v>
+        <v>20.332833000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1003.500000</v>
+        <v>1003.5</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.919000</v>
+        <v>-123.919</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>73208.773741</v>
+        <v>73208.773740999997</v>
       </c>
       <c r="BE13" s="1">
-        <v>20.335770</v>
+        <v>20.33577</v>
       </c>
       <c r="BF13" s="1">
-        <v>1042.530000</v>
+        <v>1042.53</v>
       </c>
       <c r="BG13" s="1">
-        <v>-194.662000</v>
+        <v>-194.66200000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>73219.565728</v>
+        <v>73219.565728000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>20.338768</v>
+        <v>20.338768000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1109.440000</v>
+        <v>1109.44</v>
       </c>
       <c r="BL13" s="1">
-        <v>-308.784000</v>
+        <v>-308.78399999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>73231.450335</v>
+        <v>73231.450335000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>20.342070</v>
+        <v>20.34207</v>
       </c>
       <c r="BP13" s="1">
-        <v>1217.560000</v>
+        <v>1217.56</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-487.715000</v>
+        <v>-487.71499999999997</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>73242.648513</v>
+        <v>73242.648512999993</v>
       </c>
       <c r="BT13" s="1">
-        <v>20.345180</v>
+        <v>20.345179999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1338.190000</v>
+        <v>1338.19</v>
       </c>
       <c r="BV13" s="1">
-        <v>-683.096000</v>
+        <v>-683.096</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>73253.871985</v>
+        <v>73253.871985000005</v>
       </c>
       <c r="BY13" s="1">
         <v>20.348298</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1473.130000</v>
+        <v>1473.13</v>
       </c>
       <c r="CA13" s="1">
-        <v>-890.262000</v>
+        <v>-890.26199999999994</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>73265.819617</v>
+        <v>73265.819617000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>20.351617</v>
+        <v>20.351617000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1823.110000</v>
+        <v>1823.11</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1380.090000</v>
+        <v>-1380.09</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>73093.934020</v>
+        <v>73093.934020000001</v>
       </c>
       <c r="B14" s="1">
-        <v>20.303871</v>
+        <v>20.303871000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>902.361000</v>
+        <v>902.36099999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-194.489000</v>
+        <v>-194.489</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>73104.381751</v>
+        <v>73104.381750999994</v>
       </c>
       <c r="G14" s="1">
         <v>20.306773</v>
       </c>
       <c r="H14" s="1">
-        <v>919.073000</v>
+        <v>919.07299999999998</v>
       </c>
       <c r="I14" s="1">
-        <v>-165.570000</v>
+        <v>-165.57</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>73114.894456</v>
+        <v>73114.894455999995</v>
       </c>
       <c r="L14" s="1">
-        <v>20.309693</v>
+        <v>20.309692999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>942.533000</v>
+        <v>942.53300000000002</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.620000</v>
+        <v>-118.62</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>73124.808989</v>
+        <v>73124.808988999997</v>
       </c>
       <c r="Q14" s="1">
-        <v>20.312447</v>
+        <v>20.312446999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>949.449000</v>
+        <v>949.44899999999996</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.108000</v>
+        <v>-103.108</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>73135.043437</v>
       </c>
       <c r="V14" s="1">
-        <v>20.315290</v>
+        <v>20.315290000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>956.432000</v>
+        <v>956.43200000000002</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.717400</v>
+        <v>-88.717399999999998</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>73145.236720</v>
+        <v>73145.236720000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>20.318121</v>
+        <v>20.318121000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>964.288000</v>
+        <v>964.28800000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.288100</v>
+        <v>-77.2881</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>73155.533697</v>
+        <v>73155.533697000006</v>
       </c>
       <c r="AF14" s="1">
-        <v>20.320982</v>
+        <v>20.320982000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>969.274000</v>
+        <v>969.274</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.104600</v>
+        <v>-75.104600000000005</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>73165.742824</v>
+        <v>73165.742824000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>20.323817</v>
+        <v>20.323816999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>976.770000</v>
+        <v>976.77</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.697900</v>
+        <v>-79.697900000000004</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>73176.448968</v>
+        <v>73176.448967999997</v>
       </c>
       <c r="AP14" s="1">
         <v>20.326791</v>
       </c>
       <c r="AQ14" s="1">
-        <v>985.101000</v>
+        <v>985.101</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.118400</v>
+        <v>-91.118399999999994</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>73187.539513</v>
+        <v>73187.539512999996</v>
       </c>
       <c r="AU14" s="1">
-        <v>20.329872</v>
+        <v>20.329872000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>995.122000</v>
+        <v>995.12199999999996</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.475000</v>
+        <v>-108.47499999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>73198.555657</v>
+        <v>73198.555657000004</v>
       </c>
       <c r="AZ14" s="1">
         <v>20.332932</v>
       </c>
       <c r="BA14" s="1">
-        <v>1003.520000</v>
+        <v>1003.52</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.923000</v>
+        <v>-123.923</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>73209.139788</v>
       </c>
       <c r="BE14" s="1">
-        <v>20.335872</v>
+        <v>20.335871999999998</v>
       </c>
       <c r="BF14" s="1">
-        <v>1042.520000</v>
+        <v>1042.52</v>
       </c>
       <c r="BG14" s="1">
-        <v>-194.654000</v>
+        <v>-194.654</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>73220.330029</v>
+        <v>73220.330029000004</v>
       </c>
       <c r="BJ14" s="1">
         <v>20.338981</v>
       </c>
       <c r="BK14" s="1">
-        <v>1109.490000</v>
+        <v>1109.49</v>
       </c>
       <c r="BL14" s="1">
-        <v>-308.862000</v>
+        <v>-308.86200000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>73232.266255</v>
+        <v>73232.266254999995</v>
       </c>
       <c r="BO14" s="1">
-        <v>20.342296</v>
+        <v>20.342296000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1217.540000</v>
+        <v>1217.54</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-487.759000</v>
+        <v>-487.75900000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>73243.060687</v>
+        <v>73243.060687000005</v>
       </c>
       <c r="BT14" s="1">
         <v>20.345295</v>
       </c>
       <c r="BU14" s="1">
-        <v>1338.170000</v>
+        <v>1338.17</v>
       </c>
       <c r="BV14" s="1">
-        <v>-683.133000</v>
+        <v>-683.13300000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>73254.328304</v>
+        <v>73254.328303999995</v>
       </c>
       <c r="BY14" s="1">
-        <v>20.348425</v>
+        <v>20.348424999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1473.000000</v>
+        <v>1473</v>
       </c>
       <c r="CA14" s="1">
-        <v>-890.344000</v>
+        <v>-890.34400000000005</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>73266.336448</v>
+        <v>73266.336448000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>20.351760</v>
+        <v>20.351759999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1822.440000</v>
+        <v>1822.44</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1379.190000</v>
+        <v>-1379.19</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>73094.296628</v>
+        <v>73094.296627999996</v>
       </c>
       <c r="B15" s="1">
-        <v>20.303971</v>
+        <v>20.303971000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>902.345000</v>
+        <v>902.34500000000003</v>
       </c>
       <c r="D15" s="1">
-        <v>-194.546000</v>
+        <v>-194.54599999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>73104.728454</v>
+        <v>73104.728453999996</v>
       </c>
       <c r="G15" s="1">
-        <v>20.306869</v>
+        <v>20.306868999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>919.291000</v>
+        <v>919.29100000000005</v>
       </c>
       <c r="I15" s="1">
-        <v>-165.103000</v>
+        <v>-165.10300000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>73115.242152</v>
+        <v>73115.242152000006</v>
       </c>
       <c r="L15" s="1">
-        <v>20.309789</v>
+        <v>20.309788999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>942.483000</v>
+        <v>942.48299999999995</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.700000</v>
+        <v>-118.7</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>73125.157675</v>
+        <v>73125.157674999995</v>
       </c>
       <c r="Q15" s="1">
-        <v>20.312544</v>
+        <v>20.312543999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>949.489000</v>
+        <v>949.48900000000003</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.086000</v>
+        <v>-103.086</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>73135.590525</v>
+        <v>73135.590525000007</v>
       </c>
       <c r="V15" s="1">
-        <v>20.315442</v>
+        <v>20.315442000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>956.460000</v>
+        <v>956.46</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.731000</v>
+        <v>-88.730999999999995</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>73145.669728</v>
+        <v>73145.669727999993</v>
       </c>
       <c r="AA15" s="1">
-        <v>20.318242</v>
+        <v>20.318242000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>964.198000</v>
+        <v>964.19799999999998</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.265300</v>
+        <v>-77.265299999999996</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>73155.803490</v>
+        <v>73155.803490000006</v>
       </c>
       <c r="AF15" s="1">
         <v>20.321057</v>
       </c>
       <c r="AG15" s="1">
-        <v>969.180000</v>
+        <v>969.18</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.109000</v>
+        <v>-75.108999999999995</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>73166.014133</v>
+        <v>73166.014133000004</v>
       </c>
       <c r="AK15" s="1">
-        <v>20.323893</v>
+        <v>20.323893000000002</v>
       </c>
       <c r="AL15" s="1">
-        <v>976.789000</v>
+        <v>976.78899999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.721300</v>
+        <v>-79.721299999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>73176.811079</v>
+        <v>73176.811079000006</v>
       </c>
       <c r="AP15" s="1">
-        <v>20.326892</v>
+        <v>20.326892000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>985.102000</v>
+        <v>985.10199999999998</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.111600</v>
+        <v>-91.111599999999996</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>73187.899145</v>
+        <v>73187.899145000003</v>
       </c>
       <c r="AU15" s="1">
-        <v>20.329972</v>
+        <v>20.329972000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>995.126000</v>
+        <v>995.12599999999998</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.484000</v>
+        <v>-108.48399999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>73198.913769</v>
+        <v>73198.913769000006</v>
       </c>
       <c r="AZ15" s="1">
-        <v>20.333032</v>
+        <v>20.333031999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1003.540000</v>
+        <v>1003.54</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.924000</v>
+        <v>-123.92400000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>73209.858987</v>
       </c>
       <c r="BE15" s="1">
-        <v>20.336072</v>
+        <v>20.336072000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1042.520000</v>
+        <v>1042.52</v>
       </c>
       <c r="BG15" s="1">
-        <v>-194.641000</v>
+        <v>-194.64099999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>73220.708477</v>
+        <v>73220.708476999993</v>
       </c>
       <c r="BJ15" s="1">
-        <v>20.339086</v>
+        <v>20.339086000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1109.430000</v>
+        <v>1109.43</v>
       </c>
       <c r="BL15" s="1">
-        <v>-308.845000</v>
+        <v>-308.84500000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>73232.662061</v>
+        <v>73232.662060999995</v>
       </c>
       <c r="BO15" s="1">
         <v>20.342406</v>
       </c>
       <c r="BP15" s="1">
-        <v>1217.540000</v>
+        <v>1217.54</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-487.758000</v>
+        <v>-487.75799999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>73243.492703</v>
+        <v>73243.492702999996</v>
       </c>
       <c r="BT15" s="1">
-        <v>20.345415</v>
+        <v>20.345414999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1338.250000</v>
+        <v>1338.25</v>
       </c>
       <c r="BV15" s="1">
-        <v>-683.093000</v>
+        <v>-683.09299999999996</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>73255.096608</v>
+        <v>73255.096608000007</v>
       </c>
       <c r="BY15" s="1">
-        <v>20.348638</v>
+        <v>20.348638000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1473.070000</v>
+        <v>1473.07</v>
       </c>
       <c r="CA15" s="1">
-        <v>-890.333000</v>
+        <v>-890.33299999999997</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>73266.857285</v>
+        <v>73266.857285000006</v>
       </c>
       <c r="CD15" s="1">
-        <v>20.351905</v>
+        <v>20.351904999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1821.740000</v>
+        <v>1821.74</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1380.030000</v>
+        <v>-1380.03</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>73094.642307</v>
+        <v>73094.642307000002</v>
       </c>
       <c r="B16" s="1">
         <v>20.304067</v>
       </c>
       <c r="C16" s="1">
-        <v>902.483000</v>
+        <v>902.48299999999995</v>
       </c>
       <c r="D16" s="1">
-        <v>-194.503000</v>
+        <v>-194.50299999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>73105.077174</v>
+        <v>73105.077174000005</v>
       </c>
       <c r="G16" s="1">
-        <v>20.306966</v>
+        <v>20.306965999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>919.422000</v>
+        <v>919.42200000000003</v>
       </c>
       <c r="I16" s="1">
-        <v>-165.188000</v>
+        <v>-165.18799999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>73115.585917</v>
+        <v>73115.585917000004</v>
       </c>
       <c r="L16" s="1">
-        <v>20.309885</v>
+        <v>20.309885000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>942.403000</v>
+        <v>942.40300000000002</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.744000</v>
+        <v>-118.744</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>73125.587739</v>
+        <v>73125.587738999995</v>
       </c>
       <c r="Q16" s="1">
-        <v>20.312663</v>
+        <v>20.312663000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>949.506000</v>
+        <v>949.50599999999997</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.105000</v>
+        <v>-103.105</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>73135.726429</v>
+        <v>73135.726429000002</v>
       </c>
       <c r="V16" s="1">
-        <v>20.315480</v>
+        <v>20.315480000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>956.519000</v>
+        <v>956.51900000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.668100</v>
+        <v>-88.668099999999995</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>73145.938097</v>
+        <v>73145.938097000006</v>
       </c>
       <c r="AA16" s="1">
-        <v>20.318316</v>
+        <v>20.318315999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>964.211000</v>
+        <v>964.21100000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.280100</v>
+        <v>-77.280100000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>73156.148705</v>
       </c>
       <c r="AF16" s="1">
-        <v>20.321152</v>
+        <v>20.321152000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>969.264000</v>
+        <v>969.26400000000001</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.096600</v>
+        <v>-75.096599999999995</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>73166.360836</v>
+        <v>73166.360836000007</v>
       </c>
       <c r="AK16" s="1">
-        <v>20.323989</v>
+        <v>20.323989000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>976.794000</v>
+        <v>976.79399999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.740700</v>
+        <v>-79.740700000000004</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>73177.170183</v>
+        <v>73177.170182999995</v>
       </c>
       <c r="AP16" s="1">
-        <v>20.326992</v>
+        <v>20.326992000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>985.089000</v>
+        <v>985.08900000000006</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.114600</v>
+        <v>-91.114599999999996</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>73188.628727</v>
+        <v>73188.628727000003</v>
       </c>
       <c r="AU16" s="1">
-        <v>20.330175</v>
+        <v>20.330175000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>995.119000</v>
+        <v>995.11900000000003</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.487000</v>
+        <v>-108.48699999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>73199.632970</v>
+        <v>73199.632970000006</v>
       </c>
       <c r="AZ16" s="1">
-        <v>20.333231</v>
+        <v>20.333231000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1003.520000</v>
+        <v>1003.52</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.938000</v>
+        <v>-123.938</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>73210.222058</v>
+        <v>73210.222057999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>20.336173</v>
+        <v>20.336172999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1042.520000</v>
+        <v>1042.52</v>
       </c>
       <c r="BG16" s="1">
-        <v>-194.659000</v>
+        <v>-194.65899999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>73221.082460</v>
+        <v>73221.082460000005</v>
       </c>
       <c r="BJ16" s="1">
-        <v>20.339190</v>
+        <v>20.339189999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1109.440000</v>
+        <v>1109.44</v>
       </c>
       <c r="BL16" s="1">
-        <v>-308.867000</v>
+        <v>-308.86700000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>73233.075726</v>
+        <v>73233.075725999995</v>
       </c>
       <c r="BO16" s="1">
-        <v>20.342521</v>
+        <v>20.342521000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1217.500000</v>
+        <v>1217.5</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-487.742000</v>
+        <v>-487.74200000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>73244.242157</v>
+        <v>73244.242157000001</v>
       </c>
       <c r="BT16" s="1">
         <v>20.345623</v>
       </c>
       <c r="BU16" s="1">
-        <v>1338.210000</v>
+        <v>1338.21</v>
       </c>
       <c r="BV16" s="1">
-        <v>-683.025000</v>
+        <v>-683.02499999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>73255.225567</v>
+        <v>73255.225567000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>20.348674</v>
+        <v>20.348673999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1473.130000</v>
+        <v>1473.13</v>
       </c>
       <c r="CA16" s="1">
-        <v>-890.328000</v>
+        <v>-890.32799999999997</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>73267.374080</v>
+        <v>73267.374079999994</v>
       </c>
       <c r="CD16" s="1">
         <v>20.352048</v>
       </c>
       <c r="CE16" s="1">
-        <v>1822.400000</v>
+        <v>1822.4</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1381.090000</v>
+        <v>-1381.09</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>73094.983261</v>
+        <v>73094.983261000001</v>
       </c>
       <c r="B17" s="1">
-        <v>20.304162</v>
+        <v>20.304162000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>902.374000</v>
+        <v>902.37400000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>-194.530000</v>
+        <v>-194.53</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>73105.502708</v>
@@ -4351,58 +4767,58 @@
         <v>20.307084</v>
       </c>
       <c r="H17" s="1">
-        <v>919.251000</v>
+        <v>919.25099999999998</v>
       </c>
       <c r="I17" s="1">
-        <v>-165.099000</v>
+        <v>-165.09899999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>73116.022359</v>
+        <v>73116.022358999995</v>
       </c>
       <c r="L17" s="1">
-        <v>20.310006</v>
+        <v>20.310006000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>942.271000</v>
+        <v>942.27099999999996</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.679000</v>
+        <v>-118.679</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>73125.863978</v>
+        <v>73125.863977999994</v>
       </c>
       <c r="Q17" s="1">
-        <v>20.312740</v>
+        <v>20.312740000000002</v>
       </c>
       <c r="R17" s="1">
-        <v>949.538000</v>
+        <v>949.53800000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.131000</v>
+        <v>-103.131</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>73136.069660</v>
+        <v>73136.069659999994</v>
       </c>
       <c r="V17" s="1">
-        <v>20.315575</v>
+        <v>20.315574999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>956.523000</v>
+        <v>956.52300000000002</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.623500</v>
+        <v>-88.623500000000007</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>73146.287247</v>
@@ -4411,1705 +4827,1705 @@
         <v>20.318413</v>
       </c>
       <c r="AB17" s="1">
-        <v>964.186000</v>
+        <v>964.18600000000004</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.309000</v>
+        <v>-77.308999999999997</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>73156.492435</v>
+        <v>73156.492434999993</v>
       </c>
       <c r="AF17" s="1">
-        <v>20.321248</v>
+        <v>20.321248000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>969.269000</v>
+        <v>969.26900000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.243100</v>
+        <v>-75.243099999999998</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>73166.709525</v>
+        <v>73166.709524999998</v>
       </c>
       <c r="AK17" s="1">
-        <v>20.324086</v>
+        <v>20.324086000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>976.799000</v>
+        <v>976.79899999999998</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.743700</v>
+        <v>-79.743700000000004</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>73177.891335</v>
+        <v>73177.891334999993</v>
       </c>
       <c r="AP17" s="1">
         <v>20.327192</v>
       </c>
       <c r="AQ17" s="1">
-        <v>985.106000</v>
+        <v>985.10599999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.092700</v>
+        <v>-91.092699999999994</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>73189.021062</v>
       </c>
       <c r="AU17" s="1">
-        <v>20.330284</v>
+        <v>20.330283999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>995.104000</v>
+        <v>995.10400000000004</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.485000</v>
+        <v>-108.485</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>73199.996040</v>
+        <v>73199.996039999998</v>
       </c>
       <c r="AZ17" s="1">
-        <v>20.333332</v>
+        <v>20.333331999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1003.520000</v>
+        <v>1003.52</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.941000</v>
+        <v>-123.941</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>73210.578187</v>
+        <v>73210.578187000006</v>
       </c>
       <c r="BE17" s="1">
-        <v>20.336272</v>
+        <v>20.336272000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1042.540000</v>
+        <v>1042.54</v>
       </c>
       <c r="BG17" s="1">
-        <v>-194.652000</v>
+        <v>-194.65199999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>73221.800208</v>
+        <v>73221.800208000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>20.339389</v>
+        <v>20.339389000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1109.450000</v>
+        <v>1109.45</v>
       </c>
       <c r="BL17" s="1">
-        <v>-308.811000</v>
+        <v>-308.81099999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>73233.712092</v>
+        <v>73233.712092000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>20.342698</v>
+        <v>20.342697999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1217.550000</v>
+        <v>1217.55</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-487.754000</v>
+        <v>-487.75400000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>73244.366653</v>
+        <v>73244.366653000005</v>
       </c>
       <c r="BT17" s="1">
-        <v>20.345657</v>
+        <v>20.345656999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1338.200000</v>
+        <v>1338.2</v>
       </c>
       <c r="BV17" s="1">
-        <v>-683.101000</v>
+        <v>-683.101</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>73255.647662</v>
+        <v>73255.647662000003</v>
       </c>
       <c r="BY17" s="1">
-        <v>20.348791</v>
+        <v>20.348790999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1473.080000</v>
+        <v>1473.08</v>
       </c>
       <c r="CA17" s="1">
-        <v>-890.188000</v>
+        <v>-890.18799999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>73267.892909</v>
+        <v>73267.892909000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>20.352192</v>
+        <v>20.352191999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1823.150000</v>
+        <v>1823.15</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1379.960000</v>
+        <v>-1379.96</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>73095.409650</v>
+        <v>73095.409650000001</v>
       </c>
       <c r="B18" s="1">
-        <v>20.304280</v>
+        <v>20.304279999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>902.321000</v>
+        <v>902.32100000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>-194.346000</v>
+        <v>-194.346</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>73105.777989</v>
+        <v>73105.777988999995</v>
       </c>
       <c r="G18" s="1">
-        <v>20.307161</v>
+        <v>20.307161000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>919.528000</v>
+        <v>919.52800000000002</v>
       </c>
       <c r="I18" s="1">
-        <v>-165.229000</v>
+        <v>-165.22900000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>73116.299632</v>
+        <v>73116.299631999995</v>
       </c>
       <c r="L18" s="1">
-        <v>20.310083</v>
+        <v>20.310082999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>942.356000</v>
+        <v>942.35599999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.728000</v>
+        <v>-118.72799999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>73126.215146</v>
+        <v>73126.215146000002</v>
       </c>
       <c r="Q18" s="1">
-        <v>20.312838</v>
+        <v>20.312837999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>949.527000</v>
+        <v>949.52700000000004</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.135000</v>
+        <v>-103.13500000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>73136.412396</v>
       </c>
       <c r="V18" s="1">
-        <v>20.315670</v>
+        <v>20.315670000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>956.496000</v>
+        <v>956.49599999999998</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.592600</v>
+        <v>-88.592600000000004</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>73146.637422</v>
       </c>
       <c r="AA18" s="1">
-        <v>20.318510</v>
+        <v>20.31851</v>
       </c>
       <c r="AB18" s="1">
-        <v>964.214000</v>
+        <v>964.21400000000006</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.256800</v>
+        <v>-77.256799999999998</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>73157.179419</v>
+        <v>73157.179418999993</v>
       </c>
       <c r="AF18" s="1">
-        <v>20.321439</v>
+        <v>20.321439000000002</v>
       </c>
       <c r="AG18" s="1">
-        <v>969.341000</v>
+        <v>969.34100000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.143700</v>
+        <v>-75.143699999999995</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>73167.407395</v>
+        <v>73167.407395000002</v>
       </c>
       <c r="AK18" s="1">
-        <v>20.324280</v>
+        <v>20.324280000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>976.802000</v>
+        <v>976.80200000000002</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.730300</v>
+        <v>-79.7303</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>73178.252420</v>
+        <v>73178.252420000004</v>
       </c>
       <c r="AP18" s="1">
         <v>20.327292</v>
       </c>
       <c r="AQ18" s="1">
-        <v>985.121000</v>
+        <v>985.12099999999998</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.113200</v>
+        <v>-91.113200000000006</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>73189.383637</v>
+        <v>73189.383637000006</v>
       </c>
       <c r="AU18" s="1">
-        <v>20.330384</v>
+        <v>20.330383999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>995.148000</v>
+        <v>995.14800000000002</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.490000</v>
+        <v>-108.49</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>73200.360142</v>
+        <v>73200.360142000005</v>
       </c>
       <c r="AZ18" s="1">
-        <v>20.333433</v>
+        <v>20.333432999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1003.510000</v>
+        <v>1003.51</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.924000</v>
+        <v>-123.92400000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>73211.254234</v>
+        <v>73211.254234000007</v>
       </c>
       <c r="BE18" s="1">
-        <v>20.336460</v>
+        <v>20.336459999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1042.520000</v>
+        <v>1042.52</v>
       </c>
       <c r="BG18" s="1">
-        <v>-194.667000</v>
+        <v>-194.667</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>73222.231690</v>
+        <v>73222.231690000001</v>
       </c>
       <c r="BJ18" s="1">
         <v>20.339509</v>
       </c>
       <c r="BK18" s="1">
-        <v>1109.470000</v>
+        <v>1109.47</v>
       </c>
       <c r="BL18" s="1">
-        <v>-308.891000</v>
+        <v>-308.89100000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>73233.893667</v>
+        <v>73233.893666999997</v>
       </c>
       <c r="BO18" s="1">
         <v>20.342748</v>
       </c>
       <c r="BP18" s="1">
-        <v>1217.550000</v>
+        <v>1217.55</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-487.748000</v>
+        <v>-487.74799999999999</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>73244.777836</v>
+        <v>73244.777835999994</v>
       </c>
       <c r="BT18" s="1">
         <v>20.345772</v>
       </c>
       <c r="BU18" s="1">
-        <v>1338.230000</v>
+        <v>1338.23</v>
       </c>
       <c r="BV18" s="1">
-        <v>-683.035000</v>
+        <v>-683.03499999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>73256.071742</v>
       </c>
       <c r="BY18" s="1">
-        <v>20.348909</v>
+        <v>20.348908999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1473.100000</v>
+        <v>1473.1</v>
       </c>
       <c r="CA18" s="1">
-        <v>-890.266000</v>
+        <v>-890.26599999999996</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>73268.408735</v>
+        <v>73268.408735000005</v>
       </c>
       <c r="CD18" s="1">
-        <v>20.352336</v>
+        <v>20.352336000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1822.840000</v>
+        <v>1822.84</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1380.310000</v>
+        <v>-1380.31</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>73095.683151</v>
+        <v>73095.683151000005</v>
       </c>
       <c r="B19" s="1">
-        <v>20.304356</v>
+        <v>20.304355999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>902.384000</v>
+        <v>902.38400000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-194.365000</v>
+        <v>-194.36500000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>73106.126180</v>
+        <v>73106.126180000007</v>
       </c>
       <c r="G19" s="1">
         <v>20.307257</v>
       </c>
       <c r="H19" s="1">
-        <v>919.078000</v>
+        <v>919.07799999999997</v>
       </c>
       <c r="I19" s="1">
-        <v>-165.487000</v>
+        <v>-165.48699999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>73116.645830</v>
+        <v>73116.645829999994</v>
       </c>
       <c r="L19" s="1">
-        <v>20.310179</v>
+        <v>20.310179000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>942.302000</v>
+        <v>942.30200000000002</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.660000</v>
+        <v>-118.66</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>73126.562841</v>
+        <v>73126.562841000006</v>
       </c>
       <c r="Q19" s="1">
-        <v>20.312934</v>
+        <v>20.312933999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>949.462000</v>
+        <v>949.46199999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.096000</v>
+        <v>-103.096</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>73137.097868</v>
+        <v>73137.097867999997</v>
       </c>
       <c r="V19" s="1">
-        <v>20.315861</v>
+        <v>20.315861000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>956.486000</v>
+        <v>956.48599999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.584500</v>
+        <v>-88.584500000000006</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>73147.333837</v>
+        <v>73147.333836999998</v>
       </c>
       <c r="AA19" s="1">
         <v>20.318704</v>
       </c>
       <c r="AB19" s="1">
-        <v>964.279000</v>
+        <v>964.279</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.305700</v>
+        <v>-77.305700000000002</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>73157.521637</v>
+        <v>73157.521636999998</v>
       </c>
       <c r="AF19" s="1">
         <v>20.321534</v>
       </c>
       <c r="AG19" s="1">
-        <v>969.195000</v>
+        <v>969.19500000000005</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.161600</v>
+        <v>-75.161600000000007</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>73167.756580</v>
+        <v>73167.756580000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>20.324377</v>
+        <v>20.324376999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>976.777000</v>
+        <v>976.77700000000004</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.721700</v>
+        <v>-79.721699999999998</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>73178.610037</v>
+        <v>73178.610037000006</v>
       </c>
       <c r="AP19" s="1">
         <v>20.327392</v>
       </c>
       <c r="AQ19" s="1">
-        <v>985.105000</v>
+        <v>985.10500000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.106800</v>
+        <v>-91.106800000000007</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>73190.056710</v>
+        <v>73190.056710000004</v>
       </c>
       <c r="AU19" s="1">
-        <v>20.330571</v>
+        <v>20.330570999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>995.124000</v>
+        <v>995.12400000000002</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.491000</v>
+        <v>-108.491</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>73200.836263</v>
+        <v>73200.836263000005</v>
       </c>
       <c r="AZ19" s="1">
-        <v>20.333566</v>
+        <v>20.333566000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1003.520000</v>
+        <v>1003.52</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.913000</v>
+        <v>-123.913</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>73211.705106</v>
+        <v>73211.705105999994</v>
       </c>
       <c r="BE19" s="1">
-        <v>20.336585</v>
+        <v>20.336584999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1042.510000</v>
+        <v>1042.51</v>
       </c>
       <c r="BG19" s="1">
-        <v>-194.686000</v>
+        <v>-194.68600000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>73222.633946</v>
+        <v>73222.633946000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>20.339621</v>
+        <v>20.339621000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1109.420000</v>
+        <v>1109.42</v>
       </c>
       <c r="BL19" s="1">
-        <v>-308.836000</v>
+        <v>-308.83600000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>73234.291419</v>
+        <v>73234.291419000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>20.342859</v>
+        <v>20.342859000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1217.510000</v>
+        <v>1217.51</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-487.774000</v>
+        <v>-487.774</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>73245.206908</v>
+        <v>73245.206907999993</v>
       </c>
       <c r="BT19" s="1">
-        <v>20.345891</v>
+        <v>20.345891000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>1338.180000</v>
+        <v>1338.18</v>
       </c>
       <c r="BV19" s="1">
-        <v>-683.017000</v>
+        <v>-683.01700000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>73256.502110</v>
+        <v>73256.502110000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>20.349028</v>
+        <v>20.349028000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1473.110000</v>
+        <v>1473.11</v>
       </c>
       <c r="CA19" s="1">
-        <v>-890.417000</v>
+        <v>-890.41700000000003</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>73268.960285</v>
+        <v>73268.960284999994</v>
       </c>
       <c r="CD19" s="1">
-        <v>20.352489</v>
+        <v>20.352488999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>1822.640000</v>
+        <v>1822.64</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1381.080000</v>
+        <v>-1381.08</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>73096.023169</v>
+        <v>73096.023168999993</v>
       </c>
       <c r="B20" s="1">
         <v>20.304451</v>
       </c>
       <c r="C20" s="1">
-        <v>902.335000</v>
+        <v>902.33500000000004</v>
       </c>
       <c r="D20" s="1">
-        <v>-194.449000</v>
+        <v>-194.44900000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>73106.469909</v>
+        <v>73106.469909000007</v>
       </c>
       <c r="G20" s="1">
-        <v>20.307353</v>
+        <v>20.307352999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>918.972000</v>
+        <v>918.97199999999998</v>
       </c>
       <c r="I20" s="1">
-        <v>-165.299000</v>
+        <v>-165.29900000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>73116.989062</v>
+        <v>73116.989061999993</v>
       </c>
       <c r="L20" s="1">
-        <v>20.310275</v>
+        <v>20.310275000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>942.381000</v>
+        <v>942.38099999999997</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.767000</v>
+        <v>-118.767</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>73127.256744</v>
+        <v>73127.256743999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>20.313127</v>
+        <v>20.313127000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>949.479000</v>
+        <v>949.47900000000004</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.065000</v>
+        <v>-103.065</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>73137.443614</v>
+        <v>73137.443614000003</v>
       </c>
       <c r="V20" s="1">
-        <v>20.315957</v>
+        <v>20.315957000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>956.430000</v>
+        <v>956.43</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.643900</v>
+        <v>-88.643900000000002</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>73147.679555</v>
+        <v>73147.679554999995</v>
       </c>
       <c r="AA20" s="1">
-        <v>20.318800</v>
+        <v>20.3188</v>
       </c>
       <c r="AB20" s="1">
-        <v>964.186000</v>
+        <v>964.18600000000004</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.360200</v>
+        <v>-77.360200000000006</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>73157.865893</v>
+        <v>73157.865892999995</v>
       </c>
       <c r="AF20" s="1">
-        <v>20.321629</v>
+        <v>20.321629000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>969.248000</v>
+        <v>969.24800000000005</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.151500</v>
+        <v>-75.151499999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>73168.419762</v>
+        <v>73168.419762000005</v>
       </c>
       <c r="AK20" s="1">
-        <v>20.324561</v>
+        <v>20.324560999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>976.789000</v>
+        <v>976.78899999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.738100</v>
+        <v>-79.738100000000003</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>73179.281150</v>
+        <v>73179.281149999995</v>
       </c>
       <c r="AP20" s="1">
-        <v>20.327578</v>
+        <v>20.327577999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>985.099000</v>
+        <v>985.09900000000005</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.092200</v>
+        <v>-91.092200000000005</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>73190.514020</v>
+        <v>73190.514020000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>20.330698</v>
+        <v>20.330698000000002</v>
       </c>
       <c r="AV20" s="1">
-        <v>995.146000</v>
+        <v>995.14599999999996</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.475000</v>
+        <v>-108.47499999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>73201.077847</v>
+        <v>73201.077846999993</v>
       </c>
       <c r="AZ20" s="1">
-        <v>20.333633</v>
+        <v>20.333632999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1003.530000</v>
+        <v>1003.53</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.911000</v>
+        <v>-123.911</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>73212.062216</v>
+        <v>73212.062216000006</v>
       </c>
       <c r="BE20" s="1">
-        <v>20.336684</v>
+        <v>20.336684000000002</v>
       </c>
       <c r="BF20" s="1">
-        <v>1042.520000</v>
+        <v>1042.52</v>
       </c>
       <c r="BG20" s="1">
-        <v>-194.670000</v>
+        <v>-194.67</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>73223.010938</v>
+        <v>73223.010938000007</v>
       </c>
       <c r="BJ20" s="1">
-        <v>20.339725</v>
+        <v>20.339725000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1109.420000</v>
+        <v>1109.42</v>
       </c>
       <c r="BL20" s="1">
-        <v>-308.803000</v>
+        <v>-308.803</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>73234.725914</v>
+        <v>73234.725913999995</v>
       </c>
       <c r="BO20" s="1">
         <v>20.342979</v>
       </c>
       <c r="BP20" s="1">
-        <v>1217.530000</v>
+        <v>1217.53</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-487.733000</v>
+        <v>-487.733</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>73245.634460</v>
+        <v>73245.634460000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>20.346010</v>
+        <v>20.34601</v>
       </c>
       <c r="BU20" s="1">
-        <v>1338.210000</v>
+        <v>1338.21</v>
       </c>
       <c r="BV20" s="1">
-        <v>-683.045000</v>
+        <v>-683.04499999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>73256.937261</v>
+        <v>73256.937260999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>20.349149</v>
+        <v>20.349149000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1473.090000</v>
+        <v>1473.09</v>
       </c>
       <c r="CA20" s="1">
-        <v>-890.311000</v>
+        <v>-890.31100000000004</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>73269.491500</v>
+        <v>73269.491500000004</v>
       </c>
       <c r="CD20" s="1">
-        <v>20.352637</v>
+        <v>20.352637000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1823.480000</v>
+        <v>1823.48</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1379.860000</v>
+        <v>-1379.86</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>73096.367393</v>
+        <v>73096.367392999993</v>
       </c>
       <c r="B21" s="1">
-        <v>20.304546</v>
+        <v>20.304545999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>902.502000</v>
+        <v>902.50199999999995</v>
       </c>
       <c r="D21" s="1">
-        <v>-194.468000</v>
+        <v>-194.46799999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>73107.161332</v>
+        <v>73107.161332000003</v>
       </c>
       <c r="G21" s="1">
-        <v>20.307545</v>
+        <v>20.307545000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>919.211000</v>
+        <v>919.21100000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-164.916000</v>
+        <v>-164.916</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>73117.684949</v>
+        <v>73117.684949000002</v>
       </c>
       <c r="L21" s="1">
         <v>20.310468</v>
       </c>
       <c r="M21" s="1">
-        <v>942.412000</v>
+        <v>942.41200000000003</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.833000</v>
+        <v>-118.833</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>73127.606921</v>
+        <v>73127.606920999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>20.313224</v>
+        <v>20.313224000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>949.512000</v>
+        <v>949.51199999999994</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.044000</v>
+        <v>-103.044</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>73137.785323</v>
+        <v>73137.785323000004</v>
       </c>
       <c r="V21" s="1">
-        <v>20.316051</v>
+        <v>20.316051000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>956.573000</v>
+        <v>956.57299999999998</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.594400</v>
+        <v>-88.594399999999993</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>73148.031181</v>
+        <v>73148.031180999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>20.318898</v>
+        <v>20.318898000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>964.146000</v>
+        <v>964.14599999999996</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.246900</v>
+        <v>-77.246899999999997</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>73158.539423</v>
+        <v>73158.539422999995</v>
       </c>
       <c r="AF21" s="1">
-        <v>20.321817</v>
+        <v>20.321816999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>969.269000</v>
+        <v>969.26900000000001</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.022200</v>
+        <v>-75.022199999999998</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>73168.799666</v>
+        <v>73168.799666000006</v>
       </c>
       <c r="AK21" s="1">
-        <v>20.324667</v>
+        <v>20.324667000000002</v>
       </c>
       <c r="AL21" s="1">
-        <v>976.788000</v>
+        <v>976.78800000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.730900</v>
+        <v>-79.730900000000005</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>73179.723059</v>
+        <v>73179.723058999996</v>
       </c>
       <c r="AP21" s="1">
-        <v>20.327701</v>
+        <v>20.327701000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>985.122000</v>
+        <v>985.12199999999996</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.109200</v>
+        <v>-91.109200000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>73190.881060</v>
+        <v>73190.88106</v>
       </c>
       <c r="AU21" s="1">
-        <v>20.330800</v>
+        <v>20.3308</v>
       </c>
       <c r="AV21" s="1">
-        <v>995.136000</v>
+        <v>995.13599999999997</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.487000</v>
+        <v>-108.48699999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>73201.429981</v>
+        <v>73201.429980999994</v>
       </c>
       <c r="AZ21" s="1">
         <v>20.333731</v>
       </c>
       <c r="BA21" s="1">
-        <v>1003.520000</v>
+        <v>1003.52</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.925000</v>
+        <v>-123.925</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>73212.422807</v>
+        <v>73212.422806999995</v>
       </c>
       <c r="BE21" s="1">
-        <v>20.336784</v>
+        <v>20.336784000000002</v>
       </c>
       <c r="BF21" s="1">
-        <v>1042.530000</v>
+        <v>1042.53</v>
       </c>
       <c r="BG21" s="1">
-        <v>-194.662000</v>
+        <v>-194.66200000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>73223.440441</v>
+        <v>73223.440440999999</v>
       </c>
       <c r="BJ21" s="1">
         <v>20.339845</v>
       </c>
       <c r="BK21" s="1">
-        <v>1109.430000</v>
+        <v>1109.43</v>
       </c>
       <c r="BL21" s="1">
-        <v>-308.856000</v>
+        <v>-308.85599999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>73235.109323</v>
+        <v>73235.109322999997</v>
       </c>
       <c r="BO21" s="1">
         <v>20.343086</v>
       </c>
       <c r="BP21" s="1">
-        <v>1217.530000</v>
+        <v>1217.53</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-487.736000</v>
+        <v>-487.73599999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>73246.034699</v>
+        <v>73246.034698999996</v>
       </c>
       <c r="BT21" s="1">
         <v>20.346121</v>
       </c>
       <c r="BU21" s="1">
-        <v>1338.220000</v>
+        <v>1338.22</v>
       </c>
       <c r="BV21" s="1">
-        <v>-683.018000</v>
+        <v>-683.01800000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>73257.359852</v>
+        <v>73257.359851999994</v>
       </c>
       <c r="BY21" s="1">
-        <v>20.349267</v>
+        <v>20.349267000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1473.140000</v>
+        <v>1473.14</v>
       </c>
       <c r="CA21" s="1">
-        <v>-890.241000</v>
+        <v>-890.24099999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>73270.008331</v>
+        <v>73270.008331000005</v>
       </c>
       <c r="CD21" s="1">
-        <v>20.352780</v>
+        <v>20.352779999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1822.900000</v>
+        <v>1822.9</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1380.470000</v>
+        <v>-1380.47</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>73097.049888</v>
+        <v>73097.049887999994</v>
       </c>
       <c r="B22" s="1">
-        <v>20.304736</v>
+        <v>20.304735999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>902.461000</v>
+        <v>902.46100000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-194.509000</v>
+        <v>-194.50899999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>73107.500631</v>
+        <v>73107.500631000003</v>
       </c>
       <c r="G22" s="1">
-        <v>20.307639</v>
+        <v>20.307639000000002</v>
       </c>
       <c r="H22" s="1">
-        <v>919.626000</v>
+        <v>919.62599999999998</v>
       </c>
       <c r="I22" s="1">
-        <v>-165.366000</v>
+        <v>-165.36600000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>73118.038597</v>
+        <v>73118.038597000006</v>
       </c>
       <c r="L22" s="1">
-        <v>20.310566</v>
+        <v>20.310566000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>942.415000</v>
+        <v>942.41499999999996</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.626000</v>
+        <v>-118.626</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>73127.959575</v>
+        <v>73127.959575000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>20.313322</v>
+        <v>20.313321999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>949.489000</v>
+        <v>949.48900000000003</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.113000</v>
+        <v>-103.113</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>73138.442025</v>
+        <v>73138.442024999997</v>
       </c>
       <c r="V22" s="1">
-        <v>20.316234</v>
+        <v>20.316234000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>956.449000</v>
+        <v>956.44899999999996</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.718400</v>
+        <v>-88.718400000000003</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>73148.694968</v>
+        <v>73148.694967999996</v>
       </c>
       <c r="AA22" s="1">
-        <v>20.319082</v>
+        <v>20.319082000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>964.205000</v>
+        <v>964.20500000000004</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.285800</v>
+        <v>-77.285799999999995</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>73158.902990</v>
+        <v>73158.902990000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>20.321917</v>
+        <v>20.321916999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>969.167000</v>
+        <v>969.16700000000003</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.992900</v>
+        <v>-74.992900000000006</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>73169.147361</v>
+        <v>73169.147360999996</v>
       </c>
       <c r="AK22" s="1">
-        <v>20.324763</v>
+        <v>20.324763000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>976.813000</v>
+        <v>976.81299999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.709700</v>
+        <v>-79.709699999999998</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>73180.083186</v>
+        <v>73180.083186000003</v>
       </c>
       <c r="AP22" s="1">
-        <v>20.327801</v>
+        <v>20.327801000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>985.099000</v>
+        <v>985.09900000000005</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.099800</v>
+        <v>-91.099800000000002</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>73191.242147</v>
+        <v>73191.242146999997</v>
       </c>
       <c r="AU22" s="1">
-        <v>20.330901</v>
+        <v>20.330901000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>995.124000</v>
+        <v>995.12400000000002</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.500000</v>
+        <v>-108.5</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>73201.866950</v>
+        <v>73201.866949999996</v>
       </c>
       <c r="AZ22" s="1">
         <v>20.333852</v>
       </c>
       <c r="BA22" s="1">
-        <v>1003.520000</v>
+        <v>1003.52</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.909000</v>
+        <v>-123.90900000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>73212.856045</v>
+        <v>73212.856044999993</v>
       </c>
       <c r="BE22" s="1">
-        <v>20.336904</v>
+        <v>20.336904000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1042.550000</v>
+        <v>1042.55</v>
       </c>
       <c r="BG22" s="1">
-        <v>-194.669000</v>
+        <v>-194.66900000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>73223.788640</v>
+        <v>73223.788639999999</v>
       </c>
       <c r="BJ22" s="1">
         <v>20.339941</v>
       </c>
       <c r="BK22" s="1">
-        <v>1109.420000</v>
+        <v>1109.42</v>
       </c>
       <c r="BL22" s="1">
-        <v>-308.810000</v>
+        <v>-308.81</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>73235.530426</v>
+        <v>73235.530425999998</v>
       </c>
       <c r="BO22" s="1">
-        <v>20.343203</v>
+        <v>20.343202999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1217.560000</v>
+        <v>1217.56</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-487.740000</v>
+        <v>-487.74</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>73246.450843</v>
+        <v>73246.450842999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>20.346236</v>
+        <v>20.346236000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1338.220000</v>
+        <v>1338.22</v>
       </c>
       <c r="BV22" s="1">
-        <v>-683.041000</v>
+        <v>-683.04100000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>73257.782972</v>
+        <v>73257.782972000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>20.349384</v>
+        <v>20.349384000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1473.040000</v>
+        <v>1473.04</v>
       </c>
       <c r="CA22" s="1">
-        <v>-890.333000</v>
+        <v>-890.33299999999997</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>73270.563354</v>
+        <v>73270.563353999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>20.352934</v>
+        <v>20.352934000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1822.220000</v>
+        <v>1822.22</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1380.980000</v>
+        <v>-1380.98</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>73097.394112</v>
+        <v>73097.394111999994</v>
       </c>
       <c r="B23" s="1">
-        <v>20.304832</v>
+        <v>20.304832000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>902.441000</v>
+        <v>902.44100000000003</v>
       </c>
       <c r="D23" s="1">
-        <v>-194.526000</v>
+        <v>-194.52600000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>73107.848807</v>
+        <v>73107.848807000002</v>
       </c>
       <c r="G23" s="1">
-        <v>20.307736</v>
+        <v>20.307735999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>919.390000</v>
+        <v>919.39</v>
       </c>
       <c r="I23" s="1">
-        <v>-165.211000</v>
+        <v>-165.21100000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>73118.383316</v>
+        <v>73118.383316000007</v>
       </c>
       <c r="L23" s="1">
-        <v>20.310662</v>
+        <v>20.310662000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>942.285000</v>
+        <v>942.28499999999997</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.600000</v>
+        <v>-118.6</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>73128.625702</v>
+        <v>73128.625702000005</v>
       </c>
       <c r="Q23" s="1">
-        <v>20.313507</v>
+        <v>20.313507000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>949.487000</v>
+        <v>949.48699999999997</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.140000</v>
+        <v>-103.14</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>73138.818521</v>
+        <v>73138.818520999994</v>
       </c>
       <c r="V23" s="1">
-        <v>20.316338</v>
+        <v>20.316337999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>956.517000</v>
+        <v>956.51700000000005</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.595400</v>
+        <v>-88.595399999999998</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>73149.078731</v>
+        <v>73149.078731000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>20.319189</v>
+        <v>20.319189000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>964.108000</v>
+        <v>964.10799999999995</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.250700</v>
+        <v>-77.250699999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>73159.251182</v>
+        <v>73159.251182000007</v>
       </c>
       <c r="AF23" s="1">
-        <v>20.322014</v>
+        <v>20.322013999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>969.410000</v>
+        <v>969.41</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.938500</v>
+        <v>-74.938500000000005</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>73169.496544</v>
+        <v>73169.496543999994</v>
       </c>
       <c r="AK23" s="1">
-        <v>20.324860</v>
+        <v>20.324860000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>976.803000</v>
+        <v>976.803</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.731100</v>
+        <v>-79.731099999999998</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>73180.443777</v>
+        <v>73180.443776999993</v>
       </c>
       <c r="AP23" s="1">
-        <v>20.327901</v>
+        <v>20.327901000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>985.111000</v>
+        <v>985.11099999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.083000</v>
+        <v>-91.082999999999998</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>73191.668254</v>
+        <v>73191.668254000004</v>
       </c>
       <c r="AU23" s="1">
-        <v>20.331019</v>
+        <v>20.331019000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>995.120000</v>
+        <v>995.12</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.475000</v>
+        <v>-108.47499999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>73202.145701</v>
+        <v>73202.145701000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>20.333929</v>
+        <v>20.333929000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1003.520000</v>
+        <v>1003.52</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.918000</v>
+        <v>-123.91800000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>73213.145975</v>
+        <v>73213.145975000007</v>
       </c>
       <c r="BE23" s="1">
-        <v>20.336985</v>
+        <v>20.336984999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1042.530000</v>
+        <v>1042.53</v>
       </c>
       <c r="BG23" s="1">
-        <v>-194.663000</v>
+        <v>-194.66300000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>73224.162616</v>
+        <v>73224.162616000001</v>
       </c>
       <c r="BJ23" s="1">
         <v>20.340045</v>
       </c>
       <c r="BK23" s="1">
-        <v>1109.460000</v>
+        <v>1109.46</v>
       </c>
       <c r="BL23" s="1">
-        <v>-308.808000</v>
+        <v>-308.80799999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>73235.926729</v>
+        <v>73235.926728999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>20.343313</v>
+        <v>20.343312999999998</v>
       </c>
       <c r="BP23" s="1">
-        <v>1217.550000</v>
+        <v>1217.55</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-487.732000</v>
+        <v>-487.73200000000003</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>73246.865003</v>
+        <v>73246.865002999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>20.346351</v>
+        <v>20.346350999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1338.260000</v>
+        <v>1338.26</v>
       </c>
       <c r="BV23" s="1">
-        <v>-682.992000</v>
+        <v>-682.99199999999996</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>73258.227355</v>
+        <v>73258.227354999995</v>
       </c>
       <c r="BY23" s="1">
         <v>20.349508</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1473.010000</v>
+        <v>1473.01</v>
       </c>
       <c r="CA23" s="1">
-        <v>-890.328000</v>
+        <v>-890.32799999999997</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>73271.093083</v>
@@ -6118,786 +6534,787 @@
         <v>20.353081</v>
       </c>
       <c r="CE23" s="1">
-        <v>1823.250000</v>
+        <v>1823.25</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1380.320000</v>
+        <v>-1380.32</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>73097.733871</v>
+        <v>73097.733871000004</v>
       </c>
       <c r="B24" s="1">
-        <v>20.304926</v>
+        <v>20.304925999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>902.361000</v>
+        <v>902.36099999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-194.471000</v>
+        <v>-194.471</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>73108.508497</v>
+        <v>73108.508497000003</v>
       </c>
       <c r="G24" s="1">
-        <v>20.307919</v>
+        <v>20.307918999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>919.577000</v>
+        <v>919.577</v>
       </c>
       <c r="I24" s="1">
-        <v>-165.609000</v>
+        <v>-165.60900000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>73118.893203</v>
       </c>
       <c r="L24" s="1">
-        <v>20.310804</v>
+        <v>20.310804000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>942.367000</v>
+        <v>942.36699999999996</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.625000</v>
+        <v>-118.625</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>73129.001671</v>
+        <v>73129.001671000005</v>
       </c>
       <c r="Q24" s="1">
-        <v>20.313612</v>
+        <v>20.313611999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>949.462000</v>
+        <v>949.46199999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.128000</v>
+        <v>-103.128</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>73139.162714</v>
+        <v>73139.162714000006</v>
       </c>
       <c r="V24" s="1">
-        <v>20.316434</v>
+        <v>20.316434000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>956.493000</v>
+        <v>956.49300000000005</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.627800</v>
+        <v>-88.627799999999993</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>73149.425931</v>
+        <v>73149.425931000005</v>
       </c>
       <c r="AA24" s="1">
-        <v>20.319285</v>
+        <v>20.319285000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>964.285000</v>
+        <v>964.28499999999997</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.202100</v>
+        <v>-77.202100000000002</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>73159.594115</v>
       </c>
       <c r="AF24" s="1">
-        <v>20.322109</v>
+        <v>20.322109000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>969.147000</v>
+        <v>969.14700000000005</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.016900</v>
+        <v>-75.016900000000007</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>73169.934550</v>
+        <v>73169.934550000005</v>
       </c>
       <c r="AK24" s="1">
-        <v>20.324982</v>
+        <v>20.324981999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>976.795000</v>
+        <v>976.79499999999996</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.709800</v>
+        <v>-79.709800000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>73180.865872</v>
+        <v>73180.865871999995</v>
       </c>
       <c r="AP24" s="1">
         <v>20.328018</v>
       </c>
       <c r="AQ24" s="1">
-        <v>985.121000</v>
+        <v>985.12099999999998</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.083300</v>
+        <v>-91.083299999999994</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>73191.972762</v>
+        <v>73191.972762000005</v>
       </c>
       <c r="AU24" s="1">
         <v>20.331104</v>
       </c>
       <c r="AV24" s="1">
-        <v>995.130000</v>
+        <v>995.13</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.476000</v>
+        <v>-108.476</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>73202.506293</v>
+        <v>73202.506292999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>20.334030</v>
+        <v>20.334029999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>1003.520000</v>
+        <v>1003.52</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.914000</v>
+        <v>-123.914</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>73213.506567</v>
+        <v>73213.506567000004</v>
       </c>
       <c r="BE24" s="1">
-        <v>20.337085</v>
+        <v>20.337084999999998</v>
       </c>
       <c r="BF24" s="1">
-        <v>1042.530000</v>
+        <v>1042.53</v>
       </c>
       <c r="BG24" s="1">
-        <v>-194.654000</v>
+        <v>-194.654</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>73224.538089</v>
+        <v>73224.538088999994</v>
       </c>
       <c r="BJ24" s="1">
         <v>20.340149</v>
       </c>
       <c r="BK24" s="1">
-        <v>1109.480000</v>
+        <v>1109.48</v>
       </c>
       <c r="BL24" s="1">
-        <v>-308.875000</v>
+        <v>-308.875</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>73236.361753</v>
+        <v>73236.361753000005</v>
       </c>
       <c r="BO24" s="1">
-        <v>20.343434</v>
+        <v>20.343433999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1217.550000</v>
+        <v>1217.55</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-487.748000</v>
+        <v>-487.74799999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>73247.304955</v>
       </c>
       <c r="BT24" s="1">
-        <v>20.346474</v>
+        <v>20.346474000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1338.240000</v>
+        <v>1338.24</v>
       </c>
       <c r="BV24" s="1">
-        <v>-682.943000</v>
+        <v>-682.94299999999998</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>73258.660374</v>
+        <v>73258.660373999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>20.349628</v>
+        <v>20.349627999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1473.040000</v>
+        <v>1473.04</v>
       </c>
       <c r="CA24" s="1">
-        <v>-890.314000</v>
+        <v>-890.31399999999996</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>73271.611402</v>
+        <v>73271.611401999995</v>
       </c>
       <c r="CD24" s="1">
-        <v>20.353225</v>
+        <v>20.353224999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>1822.780000</v>
+        <v>1822.78</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1380.530000</v>
+        <v>-1380.53</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>73098.398510</v>
+        <v>73098.398509999999</v>
       </c>
       <c r="B25" s="1">
         <v>20.305111</v>
       </c>
       <c r="C25" s="1">
-        <v>902.400000</v>
+        <v>902.4</v>
       </c>
       <c r="D25" s="1">
-        <v>-194.550000</v>
+        <v>-194.55</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>73108.882449</v>
+        <v>73108.882448999997</v>
       </c>
       <c r="G25" s="1">
-        <v>20.308023</v>
+        <v>20.308022999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>919.634000</v>
+        <v>919.63400000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-165.298000</v>
+        <v>-165.298</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>73119.073252</v>
+        <v>73119.073252000002</v>
       </c>
       <c r="L25" s="1">
-        <v>20.310854</v>
+        <v>20.310853999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>942.294000</v>
+        <v>942.29399999999998</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.572000</v>
+        <v>-118.572</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>73129.350358</v>
+        <v>73129.350357999996</v>
       </c>
       <c r="Q25" s="1">
-        <v>20.313708</v>
+        <v>20.313707999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>949.475000</v>
+        <v>949.47500000000002</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.066000</v>
+        <v>-103.066</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>73139.504456</v>
+        <v>73139.504455999995</v>
       </c>
       <c r="V25" s="1">
-        <v>20.316529</v>
+        <v>20.316528999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>956.525000</v>
+        <v>956.52499999999998</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.568300</v>
+        <v>-88.568299999999994</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>73149.777100</v>
+        <v>73149.777100000007</v>
       </c>
       <c r="AA25" s="1">
-        <v>20.319383</v>
+        <v>20.319382999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>964.210000</v>
+        <v>964.21</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.225800</v>
+        <v>-77.225800000000007</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>73160.022494</v>
+        <v>73160.022494000004</v>
       </c>
       <c r="AF25" s="1">
-        <v>20.322228</v>
+        <v>20.322227999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>969.237000</v>
+        <v>969.23699999999997</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.174300</v>
+        <v>-75.174300000000002</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>73170.217728</v>
+        <v>73170.217728000003</v>
       </c>
       <c r="AK25" s="1">
-        <v>20.325060</v>
+        <v>20.325060000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>976.801000</v>
+        <v>976.80100000000004</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.722500</v>
+        <v>-79.722499999999997</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>73181.163939</v>
+        <v>73181.163939000005</v>
       </c>
       <c r="AP25" s="1">
         <v>20.328101</v>
       </c>
       <c r="AQ25" s="1">
-        <v>985.115000</v>
+        <v>985.11500000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.110000</v>
+        <v>-91.11</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>73192.335330</v>
+        <v>73192.335330000002</v>
       </c>
       <c r="AU25" s="1">
         <v>20.331204</v>
       </c>
       <c r="AV25" s="1">
-        <v>995.128000</v>
+        <v>995.12800000000004</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.486000</v>
+        <v>-108.486</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>73202.864900</v>
+        <v>73202.8649</v>
       </c>
       <c r="AZ25" s="1">
-        <v>20.334129</v>
+        <v>20.334129000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1003.530000</v>
+        <v>1003.53</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.926000</v>
+        <v>-123.926</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>73213.866166</v>
+        <v>73213.866166000007</v>
       </c>
       <c r="BE25" s="1">
-        <v>20.337185</v>
+        <v>20.337185000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1042.540000</v>
+        <v>1042.54</v>
       </c>
       <c r="BG25" s="1">
-        <v>-194.664000</v>
+        <v>-194.66399999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>73225.289064</v>
+        <v>73225.289063999997</v>
       </c>
       <c r="BJ25" s="1">
-        <v>20.340358</v>
+        <v>20.340357999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1109.470000</v>
+        <v>1109.47</v>
       </c>
       <c r="BL25" s="1">
-        <v>-308.885000</v>
+        <v>-308.88499999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>73236.747607</v>
+        <v>73236.747606999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>20.343541</v>
+        <v>20.343540999999998</v>
       </c>
       <c r="BP25" s="1">
-        <v>1217.560000</v>
+        <v>1217.56</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-487.760000</v>
+        <v>-487.76</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>73247.733001</v>
+        <v>73247.733001000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>20.346593</v>
+        <v>20.346592999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1338.250000</v>
+        <v>1338.25</v>
       </c>
       <c r="BV25" s="1">
-        <v>-682.961000</v>
+        <v>-682.96100000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>73259.080474</v>
+        <v>73259.080474000002</v>
       </c>
       <c r="BY25" s="1">
-        <v>20.349745</v>
+        <v>20.349744999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1473.100000</v>
+        <v>1473.1</v>
       </c>
       <c r="CA25" s="1">
-        <v>-890.205000</v>
+        <v>-890.20500000000004</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>73272.486841</v>
+        <v>73272.486841000005</v>
       </c>
       <c r="CD25" s="1">
         <v>20.353469</v>
       </c>
       <c r="CE25" s="1">
-        <v>1821.840000</v>
+        <v>1821.84</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1380.750000</v>
+        <v>-1380.75</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>73098.758110</v>
+        <v>73098.758109999995</v>
       </c>
       <c r="B26" s="1">
         <v>20.305211</v>
       </c>
       <c r="C26" s="1">
-        <v>902.237000</v>
+        <v>902.23699999999997</v>
       </c>
       <c r="D26" s="1">
-        <v>-194.570000</v>
+        <v>-194.57</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>73109.225185</v>
+        <v>73109.225185000003</v>
       </c>
       <c r="G26" s="1">
         <v>20.308118</v>
       </c>
       <c r="H26" s="1">
-        <v>919.389000</v>
+        <v>919.38900000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-165.443000</v>
+        <v>-165.44300000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>73119.418999</v>
+        <v>73119.418999000001</v>
       </c>
       <c r="L26" s="1">
-        <v>20.310950</v>
+        <v>20.310949999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>942.269000</v>
+        <v>942.26900000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.649000</v>
+        <v>-118.649</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>73129.699541</v>
+        <v>73129.699540999994</v>
       </c>
       <c r="Q26" s="1">
-        <v>20.313805</v>
+        <v>20.313804999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>949.487000</v>
+        <v>949.48699999999997</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.097000</v>
+        <v>-103.09699999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>73139.941432</v>
+        <v>73139.941432000007</v>
       </c>
       <c r="V26" s="1">
-        <v>20.316650</v>
+        <v>20.316649999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>956.626000</v>
+        <v>956.62599999999998</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.592800</v>
+        <v>-88.592799999999997</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>73150.204191</v>
+        <v>73150.204190999997</v>
       </c>
       <c r="AA26" s="1">
-        <v>20.319501</v>
+        <v>20.319500999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>964.300000</v>
+        <v>964.3</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.295300</v>
+        <v>-77.295299999999997</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>73160.289310</v>
+        <v>73160.289309999993</v>
       </c>
       <c r="AF26" s="1">
-        <v>20.322303</v>
+        <v>20.322303000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>969.225000</v>
+        <v>969.22500000000002</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.133800</v>
+        <v>-75.133799999999994</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>73170.563934</v>
+        <v>73170.563934000005</v>
       </c>
       <c r="AK26" s="1">
-        <v>20.325157</v>
+        <v>20.325157000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>976.796000</v>
+        <v>976.79600000000005</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.742000</v>
+        <v>-79.742000000000004</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>73181.522562</v>
+        <v>73181.522561999998</v>
       </c>
       <c r="AP26" s="1">
         <v>20.328201</v>
       </c>
       <c r="AQ26" s="1">
-        <v>985.121000</v>
+        <v>985.12099999999998</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.110600</v>
+        <v>-91.110600000000005</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>73192.701874</v>
+        <v>73192.701874000006</v>
       </c>
       <c r="AU26" s="1">
-        <v>20.331306</v>
+        <v>20.331306000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>995.132000</v>
+        <v>995.13199999999995</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.494000</v>
+        <v>-108.494</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>73203.581123</v>
+        <v>73203.581122999996</v>
       </c>
       <c r="AZ26" s="1">
-        <v>20.334328</v>
+        <v>20.334327999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1003.530000</v>
+        <v>1003.53</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.925000</v>
+        <v>-123.925</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>73214.589828</v>
+        <v>73214.589827999996</v>
       </c>
       <c r="BE26" s="1">
-        <v>20.337386</v>
+        <v>20.337385999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1042.530000</v>
+        <v>1042.53</v>
       </c>
       <c r="BG26" s="1">
-        <v>-194.673000</v>
+        <v>-194.673</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>73225.662550</v>
+        <v>73225.662549999994</v>
       </c>
       <c r="BJ26" s="1">
-        <v>20.340462</v>
+        <v>20.340461999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1109.400000</v>
+        <v>1109.4000000000001</v>
       </c>
       <c r="BL26" s="1">
-        <v>-308.853000</v>
+        <v>-308.85300000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>73237.164742</v>
+        <v>73237.164741999994</v>
       </c>
       <c r="BO26" s="1">
         <v>20.343657</v>
       </c>
       <c r="BP26" s="1">
-        <v>1217.590000</v>
+        <v>1217.5899999999999</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-487.780000</v>
+        <v>-487.78</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>73248.144185</v>
+        <v>73248.144184999997</v>
       </c>
       <c r="BT26" s="1">
-        <v>20.346707</v>
+        <v>20.346706999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1338.250000</v>
+        <v>1338.25</v>
       </c>
       <c r="BV26" s="1">
-        <v>-682.967000</v>
+        <v>-682.96699999999998</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>73259.817531</v>
+        <v>73259.817530999993</v>
       </c>
       <c r="BY26" s="1">
-        <v>20.349949</v>
+        <v>20.349948999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1473.120000</v>
+        <v>1473.12</v>
       </c>
       <c r="CA26" s="1">
-        <v>-890.238000</v>
+        <v>-890.23800000000006</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>73272.692680</v>
+        <v>73272.692679999993</v>
       </c>
       <c r="CD26" s="1">
-        <v>20.353526</v>
+        <v>20.353525999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1823.030000</v>
+        <v>1823.03</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1380.420000</v>
+        <v>-1380.42</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>